--- a/BackTest/2019-10-20 BackTest BCH.xlsx
+++ b/BackTest/2019-10-20 BackTest BCH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2600</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>253370</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2800</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>253270</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3200</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-18.51851851851852</v>
+      </c>
       <c r="L14" t="n">
         <v>253230</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3600</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-26.66666666666667</v>
+      </c>
       <c r="L15" t="n">
         <v>253140</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3800</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-24.13793103448276</v>
+      </c>
       <c r="L16" t="n">
         <v>253040</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>4000</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-18.51851851851852</v>
+      </c>
       <c r="L17" t="n">
         <v>252950</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4000</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L18" t="n">
         <v>252900</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4200</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L19" t="n">
         <v>252860</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4600</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L20" t="n">
         <v>252920</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5400</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L21" t="n">
         <v>253020</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5600</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L22" t="n">
         <v>253120</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>6000</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>253160</v>
@@ -1466,7 +1488,7 @@
         <v>6300</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.694915254237288</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L24" t="n">
         <v>253190</v>
@@ -1515,7 +1537,7 @@
         <v>6400</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.694915254237288</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L25" t="n">
         <v>253270</v>
@@ -1564,7 +1586,7 @@
         <v>6700</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.918032786885246</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>253340</v>
@@ -1613,7 +1635,7 @@
         <v>6700</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>253430</v>
@@ -1662,7 +1684,7 @@
         <v>7100</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L28" t="n">
         <v>253480</v>
@@ -1711,7 +1733,7 @@
         <v>7900</v>
       </c>
       <c r="K29" t="n">
-        <v>-13.84615384615385</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L29" t="n">
         <v>253430</v>
@@ -1760,7 +1782,7 @@
         <v>8400</v>
       </c>
       <c r="K30" t="n">
-        <v>3.125</v>
+        <v>-40</v>
       </c>
       <c r="L30" t="n">
         <v>253390</v>
@@ -1809,7 +1831,7 @@
         <v>8400</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.333333333333333</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L31" t="n">
         <v>253270</v>
@@ -1860,7 +1882,7 @@
         <v>8500</v>
       </c>
       <c r="K32" t="n">
-        <v>1.694915254237288</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>253180</v>
@@ -1911,7 +1933,7 @@
         <v>8800</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.666666666666667</v>
+        <v>-44</v>
       </c>
       <c r="L33" t="n">
         <v>253100</v>
@@ -1962,7 +1984,7 @@
         <v>9400</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.225806451612903</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>253050</v>
@@ -2013,7 +2035,7 @@
         <v>9800</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.225806451612903</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L35" t="n">
         <v>252950</v>
@@ -2064,7 +2086,7 @@
         <v>10200</v>
       </c>
       <c r="K36" t="n">
-        <v>6.25</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L36" t="n">
         <v>252920</v>
@@ -2115,7 +2137,7 @@
         <v>10400</v>
       </c>
       <c r="K37" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L37" t="n">
         <v>252910</v>
@@ -2166,7 +2188,7 @@
         <v>10600</v>
       </c>
       <c r="K38" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>252920</v>
@@ -2217,7 +2239,7 @@
         <v>10700</v>
       </c>
       <c r="K39" t="n">
-        <v>4.615384615384616</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L39" t="n">
         <v>253000</v>
@@ -2268,7 +2290,7 @@
         <v>11000</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>253000</v>
@@ -2319,7 +2341,7 @@
         <v>11300</v>
       </c>
       <c r="K41" t="n">
-        <v>-15.25423728813559</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L41" t="n">
         <v>253030</v>
@@ -2370,7 +2392,7 @@
         <v>11700</v>
       </c>
       <c r="K42" t="n">
-        <v>-18.0327868852459</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L42" t="n">
         <v>253010</v>
@@ -2421,7 +2443,7 @@
         <v>12200</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>253070</v>
@@ -2472,7 +2494,7 @@
         <v>12500</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.225806451612903</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L44" t="n">
         <v>253100</v>
@@ -2523,7 +2545,7 @@
         <v>12600</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.225806451612903</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L45" t="n">
         <v>253180</v>
@@ -2574,7 +2596,7 @@
         <v>12700</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L46" t="n">
         <v>253210</v>
@@ -2625,7 +2647,7 @@
         <v>13100</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.25</v>
+        <v>-4</v>
       </c>
       <c r="L47" t="n">
         <v>253180</v>
@@ -2676,7 +2698,7 @@
         <v>13200</v>
       </c>
       <c r="K48" t="n">
-        <v>1.639344262295082</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>253180</v>
@@ -2727,7 +2749,7 @@
         <v>13300</v>
       </c>
       <c r="K49" t="n">
-        <v>14.81481481481481</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L49" t="n">
         <v>253180</v>
@@ -2778,7 +2800,7 @@
         <v>13400</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L50" t="n">
         <v>253220</v>
@@ -2829,7 +2851,7 @@
         <v>13400</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L51" t="n">
         <v>253230</v>
@@ -2880,7 +2902,7 @@
         <v>13400</v>
       </c>
       <c r="K52" t="n">
-        <v>6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>253280</v>
@@ -2931,7 +2953,7 @@
         <v>13500</v>
       </c>
       <c r="K53" t="n">
-        <v>10.63829787234043</v>
+        <v>-40</v>
       </c>
       <c r="L53" t="n">
         <v>253270</v>
@@ -2982,7 +3004,7 @@
         <v>13600</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L54" t="n">
         <v>253240</v>
@@ -3033,7 +3055,7 @@
         <v>13600</v>
       </c>
       <c r="K55" t="n">
-        <v>10.52631578947368</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>253200</v>
@@ -3084,7 +3106,7 @@
         <v>13800</v>
       </c>
       <c r="K56" t="n">
-        <v>5.555555555555555</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L56" t="n">
         <v>253190</v>
@@ -3135,7 +3157,7 @@
         <v>14300</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.82051282051282</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L57" t="n">
         <v>253170</v>
@@ -3186,7 +3208,7 @@
         <v>14600</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L58" t="n">
         <v>253170</v>
@@ -3237,7 +3259,7 @@
         <v>14900</v>
       </c>
       <c r="K59" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L59" t="n">
         <v>253150</v>
@@ -3288,7 +3310,7 @@
         <v>15000</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L60" t="n">
         <v>253110</v>
@@ -3339,7 +3361,7 @@
         <v>15000</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.108108108108109</v>
+        <v>-25</v>
       </c>
       <c r="L61" t="n">
         <v>253070</v>
@@ -3390,7 +3412,7 @@
         <v>15200</v>
       </c>
       <c r="K62" t="n">
-        <v>8.571428571428571</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L62" t="n">
         <v>253050</v>
@@ -3441,7 +3463,7 @@
         <v>15300</v>
       </c>
       <c r="K63" t="n">
-        <v>-9.67741935483871</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L63" t="n">
         <v>253030</v>
@@ -3492,7 +3514,7 @@
         <v>15300</v>
       </c>
       <c r="K64" t="n">
-        <v>-21.42857142857143</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L64" t="n">
         <v>253000</v>
@@ -3543,7 +3565,7 @@
         <v>15500</v>
       </c>
       <c r="K65" t="n">
-        <v>-31.03448275862069</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L65" t="n">
         <v>252950</v>
@@ -3594,7 +3616,7 @@
         <v>15600</v>
       </c>
       <c r="K66" t="n">
-        <v>-31.03448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L66" t="n">
         <v>252870</v>
@@ -3645,7 +3667,7 @@
         <v>15900</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.142857142857142</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L67" t="n">
         <v>252870</v>
@@ -3696,7 +3718,7 @@
         <v>16500</v>
       </c>
       <c r="K68" t="n">
-        <v>-27.27272727272727</v>
+        <v>-37.5</v>
       </c>
       <c r="L68" t="n">
         <v>252780</v>
@@ -3798,7 +3820,7 @@
         <v>16900</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571428</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L70" t="n">
         <v>252730</v>
@@ -3849,7 +3871,7 @@
         <v>17000</v>
       </c>
       <c r="K71" t="n">
-        <v>-16.66666666666666</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L71" t="n">
         <v>252710</v>
@@ -3900,7 +3922,7 @@
         <v>17100</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.51351351351351</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L72" t="n">
         <v>252680</v>
@@ -3951,7 +3973,7 @@
         <v>17300</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>252680</v>
@@ -4002,7 +4024,7 @@
         <v>18000</v>
       </c>
       <c r="K74" t="n">
-        <v>-22.72727272727273</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>252610</v>
@@ -4053,7 +4075,7 @@
         <v>18300</v>
       </c>
       <c r="K75" t="n">
-        <v>-14.8936170212766</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L75" t="n">
         <v>252590</v>
@@ -4104,7 +4126,7 @@
         <v>18300</v>
       </c>
       <c r="K76" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>252580</v>
@@ -4155,7 +4177,7 @@
         <v>18500</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>252520</v>
@@ -4206,7 +4228,7 @@
         <v>18700</v>
       </c>
       <c r="K78" t="n">
-        <v>-26.82926829268293</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>252500</v>
@@ -4257,7 +4279,7 @@
         <v>18700</v>
       </c>
       <c r="K79" t="n">
-        <v>-21.05263157894737</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>252460</v>
@@ -4308,7 +4330,7 @@
         <v>19100</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.317073170731707</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L80" t="n">
         <v>252440</v>
@@ -4359,7 +4381,7 @@
         <v>19300</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.62790697674419</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L81" t="n">
         <v>252410</v>
@@ -4410,7 +4432,7 @@
         <v>19500</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.62790697674419</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L82" t="n">
         <v>252390</v>
@@ -4461,7 +4483,7 @@
         <v>19600</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.976744186046512</v>
+        <v>25</v>
       </c>
       <c r="L83" t="n">
         <v>252360</v>
@@ -4512,7 +4534,7 @@
         <v>19900</v>
       </c>
       <c r="K84" t="n">
-        <v>-13.04347826086956</v>
+        <v>-12.5</v>
       </c>
       <c r="L84" t="n">
         <v>252370</v>
@@ -4563,7 +4585,7 @@
         <v>20200</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.127659574468085</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L85" t="n">
         <v>252380</v>
@@ -4614,7 +4636,7 @@
         <v>20500</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>252360</v>
@@ -4665,7 +4687,7 @@
         <v>20700</v>
       </c>
       <c r="K87" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>252340</v>
@@ -4716,7 +4738,7 @@
         <v>21100</v>
       </c>
       <c r="K88" t="n">
-        <v>4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L88" t="n">
         <v>252380</v>
@@ -4767,7 +4789,7 @@
         <v>21400</v>
       </c>
       <c r="K89" t="n">
-        <v>6.382978723404255</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L89" t="n">
         <v>252450</v>
@@ -4818,7 +4840,7 @@
         <v>21500</v>
       </c>
       <c r="K90" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L90" t="n">
         <v>252490</v>
@@ -4869,7 +4891,7 @@
         <v>21500</v>
       </c>
       <c r="K91" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>252550</v>
@@ -4920,7 +4942,7 @@
         <v>21700</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L92" t="n">
         <v>252570</v>
@@ -4971,7 +4993,7 @@
         <v>21800</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.666666666666667</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L93" t="n">
         <v>252570</v>
@@ -5022,7 +5044,7 @@
         <v>22100</v>
       </c>
       <c r="K94" t="n">
-        <v>17.07317073170732</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L94" t="n">
         <v>252630</v>
@@ -5073,7 +5095,7 @@
         <v>22200</v>
       </c>
       <c r="K95" t="n">
-        <v>7.692307692307693</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L95" t="n">
         <v>252650</v>
@@ -5124,7 +5146,7 @@
         <v>22500</v>
       </c>
       <c r="K96" t="n">
-        <v>14.28571428571428</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L96" t="n">
         <v>252730</v>
@@ -5175,7 +5197,7 @@
         <v>22800</v>
       </c>
       <c r="K97" t="n">
-        <v>11.62790697674419</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L97" t="n">
         <v>252800</v>
@@ -5226,7 +5248,7 @@
         <v>22900</v>
       </c>
       <c r="K98" t="n">
-        <v>19.04761904761905</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L98" t="n">
         <v>252840</v>
@@ -5277,7 +5299,7 @@
         <v>23000</v>
       </c>
       <c r="K99" t="n">
-        <v>20.93023255813954</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L99" t="n">
         <v>252860</v>
@@ -5328,7 +5350,7 @@
         <v>23200</v>
       </c>
       <c r="K100" t="n">
-        <v>7.317073170731707</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L100" t="n">
         <v>252850</v>
@@ -5379,7 +5401,7 @@
         <v>23300</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>252830</v>
@@ -5430,7 +5452,7 @@
         <v>23700</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L102" t="n">
         <v>252870</v>
@@ -5481,7 +5503,7 @@
         <v>23800</v>
       </c>
       <c r="K103" t="n">
-        <v>9.523809523809524</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L103" t="n">
         <v>252910</v>
@@ -5532,7 +5554,7 @@
         <v>24100</v>
       </c>
       <c r="K104" t="n">
-        <v>23.80952380952381</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L104" t="n">
         <v>252950</v>
@@ -5583,7 +5605,7 @@
         <v>24100</v>
       </c>
       <c r="K105" t="n">
-        <v>17.94871794871795</v>
+        <v>12.5</v>
       </c>
       <c r="L105" t="n">
         <v>253000</v>
@@ -5634,7 +5656,7 @@
         <v>24400</v>
       </c>
       <c r="K106" t="n">
-        <v>17.94871794871795</v>
+        <v>12.5</v>
       </c>
       <c r="L106" t="n">
         <v>252990</v>
@@ -5685,7 +5707,7 @@
         <v>24700</v>
       </c>
       <c r="K107" t="n">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L107" t="n">
         <v>253040</v>
@@ -5736,7 +5758,7 @@
         <v>25000</v>
       </c>
       <c r="K108" t="n">
-        <v>12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>253050</v>
@@ -5787,7 +5809,7 @@
         <v>25200</v>
       </c>
       <c r="K109" t="n">
-        <v>10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>253070</v>
@@ -5838,7 +5860,7 @@
         <v>25400</v>
       </c>
       <c r="K110" t="n">
-        <v>2.564102564102564</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>253090</v>
@@ -5889,7 +5911,7 @@
         <v>25800</v>
       </c>
       <c r="K111" t="n">
-        <v>-6.976744186046512</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L111" t="n">
         <v>253080</v>
@@ -5940,7 +5962,7 @@
         <v>26400</v>
       </c>
       <c r="K112" t="n">
-        <v>-14.8936170212766</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L112" t="n">
         <v>252970</v>
@@ -5991,7 +6013,7 @@
         <v>26900</v>
       </c>
       <c r="K113" t="n">
-        <v>-1.96078431372549</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L113" t="n">
         <v>252920</v>
@@ -6042,7 +6064,7 @@
         <v>26900</v>
       </c>
       <c r="K114" t="n">
-        <v>-8.333333333333332</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>252840</v>
@@ -6093,7 +6115,7 @@
         <v>27100</v>
       </c>
       <c r="K115" t="n">
-        <v>-10.20408163265306</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L115" t="n">
         <v>252740</v>
@@ -6144,7 +6166,7 @@
         <v>27200</v>
       </c>
       <c r="K116" t="n">
-        <v>-19.14893617021277</v>
+        <v>-44</v>
       </c>
       <c r="L116" t="n">
         <v>252660</v>
@@ -6195,7 +6217,7 @@
         <v>27900</v>
       </c>
       <c r="K117" t="n">
-        <v>1.96078431372549</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L117" t="n">
         <v>252620</v>
@@ -6246,7 +6268,7 @@
         <v>28200</v>
       </c>
       <c r="K118" t="n">
-        <v>-5.660377358490567</v>
+        <v>-20</v>
       </c>
       <c r="L118" t="n">
         <v>252580</v>
@@ -6297,7 +6319,7 @@
         <v>28300</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.433962264150944</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L119" t="n">
         <v>252510</v>
@@ -6399,7 +6421,7 @@
         <v>28500</v>
       </c>
       <c r="K121" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>252420</v>
@@ -6450,7 +6472,7 @@
         <v>28800</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.803921568627452</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L122" t="n">
         <v>252480</v>
@@ -6501,7 +6523,7 @@
         <v>29100</v>
       </c>
       <c r="K123" t="n">
-        <v>-13.20754716981132</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L123" t="n">
         <v>252460</v>
@@ -6552,7 +6574,7 @@
         <v>29100</v>
       </c>
       <c r="K124" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>252440</v>
@@ -6603,7 +6625,7 @@
         <v>29200</v>
       </c>
       <c r="K125" t="n">
-        <v>-21.56862745098039</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>252430</v>
@@ -6654,7 +6676,7 @@
         <v>29300</v>
       </c>
       <c r="K126" t="n">
-        <v>-18.36734693877551</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L126" t="n">
         <v>252420</v>
@@ -6705,7 +6727,7 @@
         <v>29400</v>
       </c>
       <c r="K127" t="n">
-        <v>-27.65957446808511</v>
+        <v>-50</v>
       </c>
       <c r="L127" t="n">
         <v>252330</v>
@@ -6756,7 +6778,7 @@
         <v>29700</v>
       </c>
       <c r="K128" t="n">
-        <v>-27.65957446808511</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L128" t="n">
         <v>252240</v>
@@ -6807,7 +6829,7 @@
         <v>29700</v>
       </c>
       <c r="K129" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L129" t="n">
         <v>252160</v>
@@ -6858,7 +6880,7 @@
         <v>30000</v>
       </c>
       <c r="K130" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L130" t="n">
         <v>252120</v>
@@ -6909,7 +6931,7 @@
         <v>30000</v>
       </c>
       <c r="K131" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L131" t="n">
         <v>252090</v>
@@ -6960,7 +6982,7 @@
         <v>30200</v>
       </c>
       <c r="K132" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L132" t="n">
         <v>252050</v>
@@ -7011,7 +7033,7 @@
         <v>30300</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L133" t="n">
         <v>252030</v>
@@ -7062,7 +7084,7 @@
         <v>30400</v>
       </c>
       <c r="K134" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>252000</v>
@@ -7164,7 +7186,7 @@
         <v>30600</v>
       </c>
       <c r="K136" t="n">
-        <v>-11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L136" t="n">
         <v>251950</v>
@@ -7215,7 +7237,7 @@
         <v>30800</v>
       </c>
       <c r="K137" t="n">
-        <v>-31.03448275862069</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L137" t="n">
         <v>251950</v>
@@ -7266,7 +7288,7 @@
         <v>31000</v>
       </c>
       <c r="K138" t="n">
-        <v>-28.57142857142857</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L138" t="n">
         <v>251960</v>
@@ -7317,7 +7339,7 @@
         <v>31000</v>
       </c>
       <c r="K139" t="n">
-        <v>-25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>251970</v>
@@ -7368,7 +7390,7 @@
         <v>31200</v>
       </c>
       <c r="K140" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>251970</v>
@@ -7419,7 +7441,7 @@
         <v>31200</v>
       </c>
       <c r="K141" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>251970</v>
@@ -7470,7 +7492,7 @@
         <v>31300</v>
       </c>
       <c r="K142" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="L142" t="n">
         <v>251940</v>
@@ -7521,7 +7543,7 @@
         <v>31500</v>
       </c>
       <c r="K143" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L143" t="n">
         <v>251900</v>
@@ -7572,7 +7594,7 @@
         <v>31700</v>
       </c>
       <c r="K144" t="n">
-        <v>-30.76923076923077</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L144" t="n">
         <v>251850</v>
@@ -7623,7 +7645,7 @@
         <v>31900</v>
       </c>
       <c r="K145" t="n">
-        <v>-18.51851851851852</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L145" t="n">
         <v>251820</v>
@@ -7674,7 +7696,7 @@
         <v>32300</v>
       </c>
       <c r="K146" t="n">
-        <v>-26.66666666666667</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L146" t="n">
         <v>251770</v>
@@ -7725,7 +7747,7 @@
         <v>32500</v>
       </c>
       <c r="K147" t="n">
-        <v>-16.12903225806452</v>
+        <v>-20</v>
       </c>
       <c r="L147" t="n">
         <v>251720</v>
@@ -7776,7 +7798,7 @@
         <v>33700</v>
       </c>
       <c r="K148" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>251810</v>
@@ -7827,7 +7849,7 @@
         <v>33800</v>
       </c>
       <c r="K149" t="n">
-        <v>21.95121951219512</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L149" t="n">
         <v>251890</v>
@@ -7878,7 +7900,7 @@
         <v>33900</v>
       </c>
       <c r="K150" t="n">
-        <v>12.82051282051282</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L150" t="n">
         <v>251940</v>
@@ -7929,7 +7951,7 @@
         <v>34600</v>
       </c>
       <c r="K151" t="n">
-        <v>26.08695652173913</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L151" t="n">
         <v>252060</v>
@@ -7980,7 +8002,7 @@
         <v>34800</v>
       </c>
       <c r="K152" t="n">
-        <v>17.39130434782609</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L152" t="n">
         <v>252170</v>
@@ -8031,7 +8053,7 @@
         <v>35100</v>
       </c>
       <c r="K153" t="n">
-        <v>12.5</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L153" t="n">
         <v>252270</v>
@@ -8082,7 +8104,7 @@
         <v>35400</v>
       </c>
       <c r="K154" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L154" t="n">
         <v>252360</v>
@@ -8133,7 +8155,7 @@
         <v>35600</v>
       </c>
       <c r="K155" t="n">
-        <v>3.846153846153846</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L155" t="n">
         <v>252410</v>
@@ -8184,7 +8206,7 @@
         <v>35800</v>
       </c>
       <c r="K156" t="n">
-        <v>11.53846153846154</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L156" t="n">
         <v>252520</v>
@@ -8235,7 +8257,7 @@
         <v>35800</v>
       </c>
       <c r="K157" t="n">
-        <v>8</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L157" t="n">
         <v>252610</v>
@@ -8286,7 +8308,7 @@
         <v>35800</v>
       </c>
       <c r="K158" t="n">
-        <v>12.5</v>
+        <v>-10</v>
       </c>
       <c r="L158" t="n">
         <v>252580</v>
@@ -8337,7 +8359,7 @@
         <v>36300</v>
       </c>
       <c r="K159" t="n">
-        <v>20.75471698113208</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L159" t="n">
         <v>252610</v>
@@ -8388,7 +8410,7 @@
         <v>36600</v>
       </c>
       <c r="K160" t="n">
-        <v>11.11111111111111</v>
+        <v>-30</v>
       </c>
       <c r="L160" t="n">
         <v>252620</v>
@@ -8439,7 +8461,7 @@
         <v>36700</v>
       </c>
       <c r="K161" t="n">
-        <v>12.72727272727273</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L161" t="n">
         <v>252570</v>
@@ -8490,7 +8512,7 @@
         <v>36700</v>
       </c>
       <c r="K162" t="n">
-        <v>14.81481481481481</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>252540</v>
@@ -8541,7 +8563,7 @@
         <v>37300</v>
       </c>
       <c r="K163" t="n">
-        <v>27.58620689655172</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L163" t="n">
         <v>252600</v>
@@ -8592,7 +8614,7 @@
         <v>37600</v>
       </c>
       <c r="K164" t="n">
-        <v>25.42372881355932</v>
+        <v>40</v>
       </c>
       <c r="L164" t="n">
         <v>252660</v>
@@ -8643,7 +8665,7 @@
         <v>37700</v>
       </c>
       <c r="K165" t="n">
-        <v>20.68965517241379</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L165" t="n">
         <v>252730</v>
@@ -8694,7 +8716,7 @@
         <v>37700</v>
       </c>
       <c r="K166" t="n">
-        <v>29.62962962962963</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L166" t="n">
         <v>252780</v>
@@ -8745,7 +8767,7 @@
         <v>37700</v>
       </c>
       <c r="K167" t="n">
-        <v>26.92307692307692</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L167" t="n">
         <v>252830</v>
@@ -8796,7 +8818,7 @@
         <v>37700</v>
       </c>
       <c r="K168" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>252880</v>
@@ -8847,7 +8869,7 @@
         <v>37900</v>
       </c>
       <c r="K169" t="n">
-        <v>2.439024390243902</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L169" t="n">
         <v>252860</v>
@@ -8898,7 +8920,7 @@
         <v>38200</v>
       </c>
       <c r="K170" t="n">
-        <v>11.62790697674419</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
         <v>252900</v>
@@ -8949,7 +8971,7 @@
         <v>38400</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L171" t="n">
         <v>252950</v>
@@ -9000,7 +9022,7 @@
         <v>38500</v>
       </c>
       <c r="K172" t="n">
-        <v>2.702702702702703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>252990</v>
@@ -9051,7 +9073,7 @@
         <v>38700</v>
       </c>
       <c r="K173" t="n">
-        <v>16.66666666666666</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L173" t="n">
         <v>252990</v>
@@ -9102,7 +9124,7 @@
         <v>38800</v>
       </c>
       <c r="K174" t="n">
-        <v>29.41176470588236</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L174" t="n">
         <v>253030</v>
@@ -9153,7 +9175,7 @@
         <v>39000</v>
       </c>
       <c r="K175" t="n">
-        <v>29.41176470588236</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L175" t="n">
         <v>253060</v>
@@ -9204,7 +9226,7 @@
         <v>39000</v>
       </c>
       <c r="K176" t="n">
-        <v>25</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L176" t="n">
         <v>253090</v>
@@ -9255,7 +9277,7 @@
         <v>39100</v>
       </c>
       <c r="K177" t="n">
-        <v>21.21212121212121</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L177" t="n">
         <v>253110</v>
@@ -9306,7 +9328,7 @@
         <v>39400</v>
       </c>
       <c r="K178" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L178" t="n">
         <v>253100</v>
@@ -9357,7 +9379,7 @@
         <v>39400</v>
       </c>
       <c r="K179" t="n">
-        <v>-3.225806451612903</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L179" t="n">
         <v>253110</v>
@@ -9408,7 +9430,7 @@
         <v>39500</v>
       </c>
       <c r="K180" t="n">
-        <v>3.448275862068965</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L180" t="n">
         <v>253080</v>
@@ -9459,7 +9481,7 @@
         <v>39500</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L181" t="n">
         <v>253030</v>
@@ -9510,7 +9532,7 @@
         <v>39600</v>
       </c>
       <c r="K182" t="n">
-        <v>3.448275862068965</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L182" t="n">
         <v>253000</v>
@@ -9561,7 +9583,7 @@
         <v>39800</v>
       </c>
       <c r="K183" t="n">
-        <v>-28</v>
+        <v>-80</v>
       </c>
       <c r="L183" t="n">
         <v>252930</v>
@@ -9612,7 +9634,7 @@
         <v>40900</v>
       </c>
       <c r="K184" t="n">
-        <v>-45.45454545454545</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L184" t="n">
         <v>252740</v>
@@ -9663,7 +9685,7 @@
         <v>40900</v>
       </c>
       <c r="K185" t="n">
-        <v>-43.75</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L185" t="n">
         <v>252570</v>
@@ -9714,7 +9736,7 @@
         <v>41100</v>
       </c>
       <c r="K186" t="n">
-        <v>-35.29411764705883</v>
+        <v>-70</v>
       </c>
       <c r="L186" t="n">
         <v>252420</v>
@@ -9765,7 +9787,7 @@
         <v>41500</v>
       </c>
       <c r="K187" t="n">
-        <v>-42.10526315789473</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L187" t="n">
         <v>252240</v>
@@ -9816,7 +9838,7 @@
         <v>41800</v>
       </c>
       <c r="K188" t="n">
-        <v>-31.70731707317073</v>
+        <v>-50</v>
       </c>
       <c r="L188" t="n">
         <v>252120</v>
@@ -9867,7 +9889,7 @@
         <v>41900</v>
       </c>
       <c r="K189" t="n">
-        <v>-25</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L189" t="n">
         <v>252010</v>
@@ -9918,7 +9940,7 @@
         <v>41900</v>
       </c>
       <c r="K190" t="n">
-        <v>-35.13513513513514</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L190" t="n">
         <v>251910</v>
@@ -9969,7 +9991,7 @@
         <v>42200</v>
       </c>
       <c r="K191" t="n">
-        <v>-31.57894736842105</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L191" t="n">
         <v>251840</v>
@@ -10020,7 +10042,7 @@
         <v>42400</v>
       </c>
       <c r="K192" t="n">
-        <v>-33.33333333333333</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L192" t="n">
         <v>251740</v>
@@ -10071,7 +10093,7 @@
         <v>42600</v>
       </c>
       <c r="K193" t="n">
-        <v>-33.33333333333333</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L193" t="n">
         <v>251680</v>
@@ -10122,7 +10144,7 @@
         <v>43000</v>
       </c>
       <c r="K194" t="n">
-        <v>-42.85714285714285</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L194" t="n">
         <v>251690</v>
@@ -10173,7 +10195,7 @@
         <v>43200</v>
       </c>
       <c r="K195" t="n">
-        <v>-42.85714285714285</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>251680</v>
@@ -10224,7 +10246,7 @@
         <v>43300</v>
       </c>
       <c r="K196" t="n">
-        <v>-39.53488372093023</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L196" t="n">
         <v>251660</v>
@@ -10275,7 +10297,7 @@
         <v>43500</v>
       </c>
       <c r="K197" t="n">
-        <v>-31.81818181818182</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L197" t="n">
         <v>251700</v>
@@ -10326,7 +10348,7 @@
         <v>43600</v>
       </c>
       <c r="K198" t="n">
-        <v>-23.80952380952381</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L198" t="n">
         <v>251720</v>
@@ -10377,7 +10399,7 @@
         <v>43600</v>
       </c>
       <c r="K199" t="n">
-        <v>-23.80952380952381</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L199" t="n">
         <v>251730</v>
@@ -10428,7 +10450,7 @@
         <v>43600</v>
       </c>
       <c r="K200" t="n">
-        <v>-21.95121951219512</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L200" t="n">
         <v>251740</v>
@@ -10479,7 +10501,7 @@
         <v>43600</v>
       </c>
       <c r="K201" t="n">
-        <v>-21.95121951219512</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>251720</v>
@@ -10530,7 +10552,7 @@
         <v>43700</v>
       </c>
       <c r="K202" t="n">
-        <v>-26.82926829268293</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L202" t="n">
         <v>251710</v>
@@ -10581,7 +10603,7 @@
         <v>43800</v>
       </c>
       <c r="K203" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>251670</v>
@@ -10632,7 +10654,7 @@
         <v>43900</v>
       </c>
       <c r="K204" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L204" t="n">
         <v>251680</v>
@@ -10683,7 +10705,7 @@
         <v>44100</v>
       </c>
       <c r="K205" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L205" t="n">
         <v>251730</v>
@@ -10785,7 +10807,7 @@
         <v>44400</v>
       </c>
       <c r="K207" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>251760</v>
@@ -10836,7 +10858,7 @@
         <v>44400</v>
       </c>
       <c r="K208" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>251760</v>
@@ -10887,7 +10909,7 @@
         <v>44500</v>
       </c>
       <c r="K209" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L209" t="n">
         <v>251770</v>
@@ -10938,7 +10960,7 @@
         <v>44500</v>
       </c>
       <c r="K210" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L210" t="n">
         <v>251780</v>
@@ -10989,7 +11011,7 @@
         <v>44600</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>251800</v>
@@ -11040,7 +11062,7 @@
         <v>44700</v>
       </c>
       <c r="K212" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>251820</v>
@@ -11091,7 +11113,7 @@
         <v>44800</v>
       </c>
       <c r="K213" t="n">
-        <v>-9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L213" t="n">
         <v>251840</v>
@@ -11142,7 +11164,7 @@
         <v>45000</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>251830</v>
@@ -11193,7 +11215,7 @@
         <v>45000</v>
       </c>
       <c r="K215" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>251800</v>
@@ -11244,7 +11266,7 @@
         <v>45100</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L216" t="n">
         <v>251780</v>
@@ -11295,7 +11317,7 @@
         <v>45200</v>
       </c>
       <c r="K217" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L217" t="n">
         <v>251740</v>
@@ -11346,7 +11368,7 @@
         <v>45200</v>
       </c>
       <c r="K218" t="n">
-        <v>-25</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L218" t="n">
         <v>251700</v>
@@ -11397,7 +11419,7 @@
         <v>45500</v>
       </c>
       <c r="K219" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L219" t="n">
         <v>251680</v>
@@ -11448,7 +11470,7 @@
         <v>45800</v>
       </c>
       <c r="K220" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L220" t="n">
         <v>251630</v>
@@ -11499,7 +11521,7 @@
         <v>45900</v>
       </c>
       <c r="K221" t="n">
-        <v>-21.73913043478261</v>
+        <v>-50</v>
       </c>
       <c r="L221" t="n">
         <v>251560</v>
@@ -11550,7 +11572,7 @@
         <v>46200</v>
       </c>
       <c r="K222" t="n">
-        <v>-4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>251530</v>
@@ -11601,7 +11623,7 @@
         <v>46400</v>
       </c>
       <c r="K223" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L223" t="n">
         <v>251530</v>
@@ -11652,7 +11674,7 @@
         <v>46500</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L224" t="n">
         <v>251540</v>
@@ -11703,7 +11725,7 @@
         <v>46600</v>
       </c>
       <c r="K225" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L225" t="n">
         <v>251560</v>
@@ -11754,7 +11776,7 @@
         <v>46700</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>251580</v>
@@ -11805,7 +11827,7 @@
         <v>47000</v>
       </c>
       <c r="K227" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>251640</v>
@@ -11856,7 +11878,7 @@
         <v>47000</v>
       </c>
       <c r="K228" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L228" t="n">
         <v>251700</v>
@@ -11907,7 +11929,7 @@
         <v>47000</v>
       </c>
       <c r="K229" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="L229" t="n">
         <v>251730</v>
@@ -11958,7 +11980,7 @@
         <v>47100</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L230" t="n">
         <v>251780</v>
@@ -12009,7 +12031,7 @@
         <v>47200</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L231" t="n">
         <v>251850</v>
@@ -12060,7 +12082,7 @@
         <v>47200</v>
       </c>
       <c r="K232" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L232" t="n">
         <v>251890</v>
@@ -12111,7 +12133,7 @@
         <v>47400</v>
       </c>
       <c r="K233" t="n">
-        <v>15.38461538461539</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L233" t="n">
         <v>251930</v>
@@ -12162,7 +12184,7 @@
         <v>47600</v>
       </c>
       <c r="K234" t="n">
-        <v>30.76923076923077</v>
+        <v>60</v>
       </c>
       <c r="L234" t="n">
         <v>252000</v>
@@ -12213,7 +12235,7 @@
         <v>47900</v>
       </c>
       <c r="K235" t="n">
-        <v>17.24137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>252030</v>
@@ -12264,7 +12286,7 @@
         <v>48000</v>
       </c>
       <c r="K236" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>252060</v>
@@ -12315,7 +12337,7 @@
         <v>48200</v>
       </c>
       <c r="K237" t="n">
-        <v>26.66666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L237" t="n">
         <v>252080</v>
@@ -12366,7 +12388,7 @@
         <v>48200</v>
       </c>
       <c r="K238" t="n">
-        <v>26.66666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L238" t="n">
         <v>252100</v>
@@ -12417,7 +12439,7 @@
         <v>48200</v>
       </c>
       <c r="K239" t="n">
-        <v>18.51851851851852</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L239" t="n">
         <v>252120</v>
@@ -12468,7 +12490,7 @@
         <v>48700</v>
       </c>
       <c r="K240" t="n">
-        <v>10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L240" t="n">
         <v>252100</v>
@@ -12519,7 +12541,7 @@
         <v>48700</v>
       </c>
       <c r="K241" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L241" t="n">
         <v>252070</v>
@@ -12570,7 +12592,7 @@
         <v>49000</v>
       </c>
       <c r="K242" t="n">
-        <v>14.28571428571428</v>
+        <v>-12.5</v>
       </c>
       <c r="L242" t="n">
         <v>252070</v>
@@ -12621,7 +12643,7 @@
         <v>49300</v>
       </c>
       <c r="K243" t="n">
-        <v>-3.448275862068965</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L243" t="n">
         <v>252020</v>
@@ -12672,7 +12694,7 @@
         <v>49300</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L244" t="n">
         <v>251950</v>
@@ -12723,7 +12745,7 @@
         <v>49400</v>
       </c>
       <c r="K245" t="n">
-        <v>-7.142857142857142</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L245" t="n">
         <v>251900</v>
@@ -12774,7 +12796,7 @@
         <v>49600</v>
       </c>
       <c r="K246" t="n">
-        <v>3.448275862068965</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L246" t="n">
         <v>251880</v>
@@ -12825,7 +12847,7 @@
         <v>49700</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L247" t="n">
         <v>251830</v>
@@ -12876,7 +12898,7 @@
         <v>49700</v>
       </c>
       <c r="K248" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L248" t="n">
         <v>251780</v>
@@ -12927,7 +12949,7 @@
         <v>49900</v>
       </c>
       <c r="K249" t="n">
-        <v>-3.448275862068965</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L249" t="n">
         <v>251750</v>
@@ -12978,7 +13000,7 @@
         <v>50100</v>
       </c>
       <c r="K250" t="n">
-        <v>6.666666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L250" t="n">
         <v>251790</v>
@@ -13029,7 +13051,7 @@
         <v>50300</v>
       </c>
       <c r="K251" t="n">
-        <v>9.67741935483871</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L251" t="n">
         <v>251850</v>
@@ -13080,7 +13102,7 @@
         <v>50400</v>
       </c>
       <c r="K252" t="n">
-        <v>6.25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L252" t="n">
         <v>251870</v>
@@ -13131,7 +13153,7 @@
         <v>50600</v>
       </c>
       <c r="K253" t="n">
-        <v>-6.25</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L253" t="n">
         <v>251900</v>
@@ -13182,7 +13204,7 @@
         <v>50700</v>
       </c>
       <c r="K254" t="n">
-        <v>-9.67741935483871</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L254" t="n">
         <v>251940</v>
@@ -13233,7 +13255,7 @@
         <v>50900</v>
       </c>
       <c r="K255" t="n">
-        <v>6.666666666666667</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L255" t="n">
         <v>252010</v>
@@ -13284,7 +13306,7 @@
         <v>51000</v>
       </c>
       <c r="K256" t="n">
-        <v>6.666666666666667</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L256" t="n">
         <v>252050</v>
@@ -13335,7 +13357,7 @@
         <v>51000</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L257" t="n">
         <v>252100</v>
@@ -13386,7 +13408,7 @@
         <v>51500</v>
       </c>
       <c r="K258" t="n">
-        <v>-15.15151515151515</v>
+        <v>-12.5</v>
       </c>
       <c r="L258" t="n">
         <v>252100</v>
@@ -13437,7 +13459,7 @@
         <v>51800</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.555555555555555</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L259" t="n">
         <v>252110</v>
@@ -13488,7 +13510,7 @@
         <v>51800</v>
       </c>
       <c r="K260" t="n">
-        <v>9.67741935483871</v>
+        <v>-20</v>
       </c>
       <c r="L260" t="n">
         <v>252100</v>
@@ -13539,7 +13561,7 @@
         <v>51900</v>
       </c>
       <c r="K261" t="n">
-        <v>12.5</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L261" t="n">
         <v>252080</v>
@@ -13590,7 +13612,7 @@
         <v>52300</v>
       </c>
       <c r="K262" t="n">
-        <v>15.15151515151515</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L262" t="n">
         <v>252110</v>
@@ -13641,7 +13663,7 @@
         <v>52400</v>
       </c>
       <c r="K263" t="n">
-        <v>22.58064516129032</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L263" t="n">
         <v>252150</v>
@@ -13692,7 +13714,7 @@
         <v>52500</v>
       </c>
       <c r="K264" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>252170</v>
@@ -13743,7 +13765,7 @@
         <v>52800</v>
       </c>
       <c r="K265" t="n">
-        <v>29.41176470588236</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L265" t="n">
         <v>252200</v>
@@ -13794,7 +13816,7 @@
         <v>52800</v>
       </c>
       <c r="K266" t="n">
-        <v>25</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L266" t="n">
         <v>252240</v>
@@ -13845,7 +13867,7 @@
         <v>52900</v>
       </c>
       <c r="K267" t="n">
-        <v>25</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L267" t="n">
         <v>252270</v>
@@ -13896,7 +13918,7 @@
         <v>52900</v>
       </c>
       <c r="K268" t="n">
-        <v>25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L268" t="n">
         <v>252350</v>
@@ -13947,7 +13969,7 @@
         <v>52900</v>
       </c>
       <c r="K269" t="n">
-        <v>20</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L269" t="n">
         <v>252400</v>
@@ -13998,7 +14020,7 @@
         <v>52900</v>
       </c>
       <c r="K270" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L270" t="n">
         <v>252450</v>
@@ -14049,7 +14071,7 @@
         <v>53300</v>
       </c>
       <c r="K271" t="n">
-        <v>-6.666666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L271" t="n">
         <v>252450</v>
@@ -14100,7 +14122,7 @@
         <v>53400</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L272" t="n">
         <v>252420</v>
@@ -14151,7 +14173,7 @@
         <v>54000</v>
       </c>
       <c r="K273" t="n">
-        <v>23.52941176470588</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>252460</v>
@@ -14202,7 +14224,7 @@
         <v>54200</v>
       </c>
       <c r="K274" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>252490</v>
@@ -14253,7 +14275,7 @@
         <v>54600</v>
       </c>
       <c r="K275" t="n">
-        <v>-2.702702702702703</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L275" t="n">
         <v>252450</v>
@@ -14304,7 +14326,7 @@
         <v>54700</v>
       </c>
       <c r="K276" t="n">
-        <v>2.702702702702703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L276" t="n">
         <v>252420</v>
@@ -14355,7 +14377,7 @@
         <v>54700</v>
       </c>
       <c r="K277" t="n">
-        <v>2.702702702702703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>252400</v>
@@ -14406,7 +14428,7 @@
         <v>54700</v>
       </c>
       <c r="K278" t="n">
-        <v>18.75</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L278" t="n">
         <v>252380</v>
@@ -14457,7 +14479,7 @@
         <v>54700</v>
       </c>
       <c r="K279" t="n">
-        <v>10.3448275862069</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L279" t="n">
         <v>252360</v>
@@ -14508,7 +14530,7 @@
         <v>54700</v>
       </c>
       <c r="K280" t="n">
-        <v>10.3448275862069</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>252340</v>
@@ -14559,7 +14581,7 @@
         <v>54700</v>
       </c>
       <c r="K281" t="n">
-        <v>7.142857142857142</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L281" t="n">
         <v>252360</v>
@@ -14610,7 +14632,7 @@
         <v>55100</v>
       </c>
       <c r="K282" t="n">
-        <v>-21.42857142857143</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L282" t="n">
         <v>252330</v>
@@ -14661,7 +14683,7 @@
         <v>55200</v>
       </c>
       <c r="K283" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L283" t="n">
         <v>252250</v>
@@ -14712,7 +14734,7 @@
         <v>55300</v>
       </c>
       <c r="K284" t="n">
-        <v>-7.142857142857142</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L284" t="n">
         <v>252200</v>
@@ -14763,7 +14785,7 @@
         <v>55400</v>
       </c>
       <c r="K285" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L285" t="n">
         <v>252180</v>
@@ -14814,7 +14836,7 @@
         <v>55500</v>
       </c>
       <c r="K286" t="n">
-        <v>-18.51851851851852</v>
+        <v>-25</v>
       </c>
       <c r="L286" t="n">
         <v>252160</v>
@@ -14865,7 +14887,7 @@
         <v>55800</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.448275862068965</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L287" t="n">
         <v>252170</v>
@@ -14916,7 +14938,7 @@
         <v>56200</v>
       </c>
       <c r="K288" t="n">
-        <v>-15.15151515151515</v>
+        <v>-20</v>
       </c>
       <c r="L288" t="n">
         <v>252140</v>
@@ -14967,7 +14989,7 @@
         <v>56400</v>
       </c>
       <c r="K289" t="n">
-        <v>-8.571428571428571</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L289" t="n">
         <v>252130</v>
@@ -15018,7 +15040,7 @@
         <v>56400</v>
       </c>
       <c r="K290" t="n">
-        <v>-8.571428571428571</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L290" t="n">
         <v>252120</v>
@@ -15069,7 +15091,7 @@
         <v>56400</v>
       </c>
       <c r="K291" t="n">
-        <v>3.225806451612903</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L291" t="n">
         <v>252110</v>
@@ -15120,7 +15142,7 @@
         <v>56400</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L292" t="n">
         <v>252140</v>
@@ -15171,7 +15193,7 @@
         <v>56400</v>
       </c>
       <c r="K293" t="n">
-        <v>-25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L293" t="n">
         <v>252160</v>
@@ -15222,7 +15244,7 @@
         <v>56400</v>
       </c>
       <c r="K294" t="n">
-        <v>-18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L294" t="n">
         <v>252170</v>
@@ -15273,7 +15295,7 @@
         <v>56400</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L295" t="n">
         <v>252190</v>
@@ -15324,7 +15346,7 @@
         <v>56400</v>
       </c>
       <c r="K296" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>252200</v>
@@ -15375,7 +15397,7 @@
         <v>56400</v>
       </c>
       <c r="K297" t="n">
-        <v>-5.88235294117647</v>
+        <v>100</v>
       </c>
       <c r="L297" t="n">
         <v>252180</v>
@@ -15426,7 +15448,7 @@
         <v>56500</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L298" t="n">
         <v>252210</v>
@@ -15477,7 +15499,7 @@
         <v>56600</v>
       </c>
       <c r="K299" t="n">
-        <v>5.263157894736842</v>
+        <v>100</v>
       </c>
       <c r="L299" t="n">
         <v>252230</v>
@@ -15528,7 +15550,7 @@
         <v>56700</v>
       </c>
       <c r="K300" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>252260</v>
@@ -15579,7 +15601,7 @@
         <v>56900</v>
       </c>
       <c r="K301" t="n">
-        <v>18.18181818181818</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>252310</v>
@@ -15630,7 +15652,7 @@
         <v>57000</v>
       </c>
       <c r="K302" t="n">
-        <v>47.36842105263158</v>
+        <v>100</v>
       </c>
       <c r="L302" t="n">
         <v>252370</v>
@@ -15681,7 +15703,7 @@
         <v>57000</v>
       </c>
       <c r="K303" t="n">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>252430</v>
@@ -15732,7 +15754,7 @@
         <v>57200</v>
       </c>
       <c r="K304" t="n">
-        <v>26.31578947368421</v>
+        <v>50</v>
       </c>
       <c r="L304" t="n">
         <v>252470</v>
@@ -15783,7 +15805,7 @@
         <v>57200</v>
       </c>
       <c r="K305" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L305" t="n">
         <v>252510</v>
@@ -15834,7 +15856,7 @@
         <v>57200</v>
       </c>
       <c r="K306" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L306" t="n">
         <v>252550</v>
@@ -15885,7 +15907,7 @@
         <v>57200</v>
       </c>
       <c r="K307" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L307" t="n">
         <v>252590</v>
@@ -15936,7 +15958,7 @@
         <v>57300</v>
       </c>
       <c r="K308" t="n">
-        <v>45.45454545454545</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L308" t="n">
         <v>252610</v>
@@ -15987,7 +16009,7 @@
         <v>57600</v>
       </c>
       <c r="K309" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>252650</v>
@@ -16038,7 +16060,7 @@
         <v>57700</v>
       </c>
       <c r="K310" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>252670</v>
@@ -16093,7 +16115,7 @@
         <v>58100</v>
       </c>
       <c r="K311" t="n">
-        <v>52.94117647058824</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L311" t="n">
         <v>252710</v>
@@ -16152,7 +16174,7 @@
         <v>58100</v>
       </c>
       <c r="K312" t="n">
-        <v>52.94117647058824</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L312" t="n">
         <v>252740</v>
@@ -16211,7 +16233,7 @@
         <v>58400</v>
       </c>
       <c r="K313" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L313" t="n">
         <v>252800</v>
@@ -16270,7 +16292,7 @@
         <v>58500</v>
       </c>
       <c r="K314" t="n">
-        <v>61.90476190476191</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L314" t="n">
         <v>252890</v>
@@ -16329,7 +16351,7 @@
         <v>58500</v>
       </c>
       <c r="K315" t="n">
-        <v>61.90476190476191</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L315" t="n">
         <v>252980</v>
@@ -16388,7 +16410,7 @@
         <v>58600</v>
       </c>
       <c r="K316" t="n">
-        <v>54.54545454545454</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L316" t="n">
         <v>253060</v>
@@ -16447,7 +16469,7 @@
         <v>58800</v>
       </c>
       <c r="K317" t="n">
-        <v>41.66666666666667</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L317" t="n">
         <v>253120</v>
@@ -16506,7 +16528,7 @@
         <v>59300</v>
       </c>
       <c r="K318" t="n">
-        <v>50</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L318" t="n">
         <v>253240</v>
@@ -16565,7 +16587,7 @@
         <v>59400</v>
       </c>
       <c r="K319" t="n">
-        <v>42.85714285714285</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L319" t="n">
         <v>253320</v>
@@ -16624,7 +16646,7 @@
         <v>59700</v>
       </c>
       <c r="K320" t="n">
-        <v>26.66666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="L320" t="n">
         <v>253380</v>
@@ -16679,7 +16701,7 @@
         <v>60000</v>
       </c>
       <c r="K321" t="n">
-        <v>9.67741935483871</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L321" t="n">
         <v>253370</v>
@@ -16736,7 +16758,7 @@
         <v>60100</v>
       </c>
       <c r="K322" t="n">
-        <v>9.67741935483871</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L322" t="n">
         <v>253370</v>
@@ -16795,7 +16817,7 @@
         <v>60100</v>
       </c>
       <c r="K323" t="n">
-        <v>9.67741935483871</v>
+        <v>-25</v>
       </c>
       <c r="L323" t="n">
         <v>253340</v>
@@ -16856,7 +16878,7 @@
         <v>60500</v>
       </c>
       <c r="K324" t="n">
-        <v>3.03030303030303</v>
+        <v>-40</v>
       </c>
       <c r="L324" t="n">
         <v>253260</v>
@@ -16915,7 +16937,7 @@
         <v>60700</v>
       </c>
       <c r="K325" t="n">
-        <v>8.571428571428571</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L325" t="n">
         <v>253200</v>
@@ -16978,7 +17000,7 @@
         <v>61100</v>
       </c>
       <c r="K326" t="n">
-        <v>-2.564102564102564</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L326" t="n">
         <v>253110</v>
@@ -17041,7 +17063,7 @@
         <v>61100</v>
       </c>
       <c r="K327" t="n">
-        <v>-2.564102564102564</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L327" t="n">
         <v>253040</v>
@@ -17102,7 +17124,7 @@
         <v>61100</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L328" t="n">
         <v>252920</v>
@@ -17165,7 +17187,7 @@
         <v>61100</v>
       </c>
       <c r="K329" t="n">
-        <v>-8.571428571428571</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L329" t="n">
         <v>252810</v>
@@ -17226,7 +17248,7 @@
         <v>61200</v>
       </c>
       <c r="K330" t="n">
-        <v>-8.571428571428571</v>
+        <v>-50</v>
       </c>
       <c r="L330" t="n">
         <v>252720</v>
@@ -17287,7 +17309,7 @@
         <v>61600</v>
       </c>
       <c r="K331" t="n">
-        <v>-31.42857142857143</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>252620</v>
@@ -17344,7 +17366,7 @@
         <v>61800</v>
       </c>
       <c r="K332" t="n">
-        <v>-24.32432432432433</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L332" t="n">
         <v>252530</v>
@@ -17403,7 +17425,7 @@
         <v>61800</v>
       </c>
       <c r="K333" t="n">
-        <v>-35.29411764705883</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L333" t="n">
         <v>252440</v>
@@ -17464,7 +17486,7 @@
         <v>62000</v>
       </c>
       <c r="K334" t="n">
-        <v>-42.85714285714285</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L334" t="n">
         <v>252370</v>
@@ -17527,7 +17549,7 @@
         <v>62000</v>
       </c>
       <c r="K335" t="n">
-        <v>-42.85714285714285</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L335" t="n">
         <v>252280</v>
@@ -17588,7 +17610,7 @@
         <v>62000</v>
       </c>
       <c r="K336" t="n">
-        <v>-41.17647058823529</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L336" t="n">
         <v>252230</v>
@@ -17651,7 +17673,7 @@
         <v>62200</v>
       </c>
       <c r="K337" t="n">
-        <v>-29.41176470588236</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L337" t="n">
         <v>252200</v>
@@ -17712,7 +17734,7 @@
         <v>62600</v>
       </c>
       <c r="K338" t="n">
-        <v>-57.57575757575758</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L338" t="n">
         <v>252130</v>
@@ -17771,7 +17793,7 @@
         <v>62800</v>
       </c>
       <c r="K339" t="n">
-        <v>-47.05882352941176</v>
+        <v>-25</v>
       </c>
       <c r="L339" t="n">
         <v>252080</v>
@@ -17828,7 +17850,7 @@
         <v>62800</v>
       </c>
       <c r="K340" t="n">
-        <v>-41.93548387096774</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>252040</v>
@@ -17879,7 +17901,7 @@
         <v>62900</v>
       </c>
       <c r="K341" t="n">
-        <v>-37.93103448275862</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L341" t="n">
         <v>252030</v>
@@ -17930,7 +17952,7 @@
         <v>62900</v>
       </c>
       <c r="K342" t="n">
-        <v>-42.85714285714285</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L342" t="n">
         <v>252000</v>
@@ -17981,7 +18003,7 @@
         <v>63000</v>
       </c>
       <c r="K343" t="n">
-        <v>-44.82758620689656</v>
+        <v>-20</v>
       </c>
       <c r="L343" t="n">
         <v>251960</v>
@@ -18032,7 +18054,7 @@
         <v>63000</v>
       </c>
       <c r="K344" t="n">
-        <v>-36</v>
+        <v>-20</v>
       </c>
       <c r="L344" t="n">
         <v>251940</v>
@@ -18083,7 +18105,7 @@
         <v>63100</v>
       </c>
       <c r="K345" t="n">
-        <v>-50</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L345" t="n">
         <v>251910</v>
@@ -18134,7 +18156,7 @@
         <v>63400</v>
       </c>
       <c r="K346" t="n">
-        <v>-47.82608695652174</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L346" t="n">
         <v>251850</v>
@@ -18185,7 +18207,7 @@
         <v>63400</v>
       </c>
       <c r="K347" t="n">
-        <v>-47.82608695652174</v>
+        <v>-50</v>
       </c>
       <c r="L347" t="n">
         <v>251770</v>
@@ -18236,7 +18258,7 @@
         <v>64000</v>
       </c>
       <c r="K348" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>251790</v>
@@ -18287,7 +18309,7 @@
         <v>64700</v>
       </c>
       <c r="K349" t="n">
-        <v>-33.33333333333333</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L349" t="n">
         <v>251720</v>
@@ -18338,7 +18360,7 @@
         <v>65200</v>
       </c>
       <c r="K350" t="n">
-        <v>-15</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L350" t="n">
         <v>251700</v>
@@ -18389,7 +18411,7 @@
         <v>65600</v>
       </c>
       <c r="K351" t="n">
-        <v>5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>251730</v>
@@ -18440,7 +18462,7 @@
         <v>65600</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L352" t="n">
         <v>251760</v>
@@ -18491,7 +18513,7 @@
         <v>65600</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L353" t="n">
         <v>251800</v>
@@ -18542,7 +18564,7 @@
         <v>65800</v>
       </c>
       <c r="K354" t="n">
-        <v>10.52631578947368</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L354" t="n">
         <v>251860</v>
@@ -18593,7 +18615,7 @@
         <v>65800</v>
       </c>
       <c r="K355" t="n">
-        <v>10.52631578947368</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L355" t="n">
         <v>251930</v>
@@ -18644,7 +18666,7 @@
         <v>66000</v>
       </c>
       <c r="K356" t="n">
-        <v>15</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L356" t="n">
         <v>252050</v>
@@ -18695,7 +18717,7 @@
         <v>66200</v>
       </c>
       <c r="K357" t="n">
-        <v>5</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L357" t="n">
         <v>252150</v>
@@ -18746,7 +18768,7 @@
         <v>66800</v>
       </c>
       <c r="K358" t="n">
-        <v>28.57142857142857</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L358" t="n">
         <v>252250</v>
@@ -18797,7 +18819,7 @@
         <v>67800</v>
       </c>
       <c r="K359" t="n">
-        <v>40</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L359" t="n">
         <v>252520</v>
@@ -18848,7 +18870,7 @@
         <v>68200</v>
       </c>
       <c r="K360" t="n">
-        <v>29.62962962962963</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L360" t="n">
         <v>252700</v>
@@ -18899,7 +18921,7 @@
         <v>68600</v>
       </c>
       <c r="K361" t="n">
-        <v>36.84210526315789</v>
+        <v>60</v>
       </c>
       <c r="L361" t="n">
         <v>252880</v>
@@ -18950,7 +18972,7 @@
         <v>68800</v>
       </c>
       <c r="K362" t="n">
-        <v>32.20338983050847</v>
+        <v>50</v>
       </c>
       <c r="L362" t="n">
         <v>253040</v>
@@ -19001,7 +19023,7 @@
         <v>68900</v>
       </c>
       <c r="K363" t="n">
-        <v>32.20338983050847</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L363" t="n">
         <v>253190</v>
@@ -19052,7 +19074,7 @@
         <v>68900</v>
       </c>
       <c r="K364" t="n">
-        <v>32.20338983050847</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L364" t="n">
         <v>253320</v>
@@ -19103,7 +19125,7 @@
         <v>68900</v>
       </c>
       <c r="K365" t="n">
-        <v>34.48275862068966</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L365" t="n">
         <v>253450</v>
@@ -19154,7 +19176,7 @@
         <v>69000</v>
       </c>
       <c r="K366" t="n">
-        <v>39.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L366" t="n">
         <v>253550</v>
@@ -19205,7 +19227,7 @@
         <v>69100</v>
       </c>
       <c r="K367" t="n">
-        <v>36.84210526315789</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L367" t="n">
         <v>253660</v>
@@ -19256,7 +19278,7 @@
         <v>69700</v>
       </c>
       <c r="K368" t="n">
-        <v>15.78947368421053</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L368" t="n">
         <v>253650</v>
@@ -19307,7 +19329,7 @@
         <v>70700</v>
       </c>
       <c r="K369" t="n">
-        <v>43.33333333333334</v>
+        <v>12</v>
       </c>
       <c r="L369" t="n">
         <v>253640</v>
@@ -19358,7 +19380,7 @@
         <v>71500</v>
       </c>
       <c r="K370" t="n">
-        <v>20.63492063492063</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L370" t="n">
         <v>253590</v>
@@ -19409,7 +19431,7 @@
         <v>71500</v>
       </c>
       <c r="K371" t="n">
-        <v>15.25423728813559</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L371" t="n">
         <v>253500</v>
@@ -19460,7 +19482,7 @@
         <v>71800</v>
       </c>
       <c r="K372" t="n">
-        <v>19.35483870967742</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L372" t="n">
         <v>253460</v>
@@ -19511,7 +19533,7 @@
         <v>71800</v>
       </c>
       <c r="K373" t="n">
-        <v>19.35483870967742</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L373" t="n">
         <v>253430</v>
@@ -19562,7 +19584,7 @@
         <v>71900</v>
       </c>
       <c r="K374" t="n">
-        <v>18.0327868852459</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L374" t="n">
         <v>253410</v>
@@ -19613,7 +19635,7 @@
         <v>72000</v>
       </c>
       <c r="K375" t="n">
-        <v>16.12903225806452</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L375" t="n">
         <v>253380</v>
@@ -19664,7 +19686,7 @@
         <v>72400</v>
       </c>
       <c r="K376" t="n">
-        <v>6.25</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L376" t="n">
         <v>253320</v>
@@ -19715,7 +19737,7 @@
         <v>73000</v>
       </c>
       <c r="K377" t="n">
-        <v>17.64705882352941</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L377" t="n">
         <v>253330</v>
@@ -19766,7 +19788,7 @@
         <v>73500</v>
       </c>
       <c r="K378" t="n">
-        <v>1.492537313432836</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L378" t="n">
         <v>253350</v>
@@ -19817,7 +19839,7 @@
         <v>73700</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.86440677966102</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L379" t="n">
         <v>253290</v>
@@ -19868,7 +19890,7 @@
         <v>74000</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L380" t="n">
         <v>253340</v>
@@ -19919,7 +19941,7 @@
         <v>74000</v>
       </c>
       <c r="K381" t="n">
-        <v>-7.407407407407407</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L381" t="n">
         <v>253390</v>
@@ -19970,7 +19992,7 @@
         <v>74200</v>
       </c>
       <c r="K382" t="n">
-        <v>-7.407407407407407</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>253390</v>
@@ -20021,7 +20043,7 @@
         <v>74300</v>
       </c>
       <c r="K383" t="n">
-        <v>-7.407407407407407</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L383" t="n">
         <v>253380</v>
@@ -20072,7 +20094,7 @@
         <v>74400</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.454545454545454</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>253370</v>
@@ -20123,7 +20145,7 @@
         <v>74600</v>
       </c>
       <c r="K385" t="n">
-        <v>-8.771929824561402</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L385" t="n">
         <v>253350</v>
@@ -20174,7 +20196,7 @@
         <v>74800</v>
       </c>
       <c r="K386" t="n">
-        <v>-3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L386" t="n">
         <v>253390</v>
@@ -20225,7 +20247,7 @@
         <v>74900</v>
       </c>
       <c r="K387" t="n">
-        <v>-3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L387" t="n">
         <v>253360</v>
@@ -20276,7 +20298,7 @@
         <v>74900</v>
       </c>
       <c r="K388" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>253380</v>
@@ -20327,7 +20349,7 @@
         <v>75200</v>
       </c>
       <c r="K389" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>253410</v>
@@ -20378,7 +20400,7 @@
         <v>75300</v>
       </c>
       <c r="K390" t="n">
-        <v>10.52631578947368</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L390" t="n">
         <v>253400</v>
@@ -20429,7 +20451,7 @@
         <v>75700</v>
       </c>
       <c r="K391" t="n">
-        <v>19.04761904761905</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>253430</v>
@@ -20480,7 +20502,7 @@
         <v>75800</v>
       </c>
       <c r="K392" t="n">
-        <v>15</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L392" t="n">
         <v>253490</v>
@@ -20531,7 +20553,7 @@
         <v>75900</v>
       </c>
       <c r="K393" t="n">
-        <v>12.19512195121951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>253550</v>
@@ -20582,7 +20604,7 @@
         <v>76300</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L394" t="n">
         <v>253560</v>
@@ -20633,7 +20655,7 @@
         <v>76500</v>
       </c>
       <c r="K395" t="n">
-        <v>6.666666666666667</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L395" t="n">
         <v>253610</v>
@@ -20684,7 +20706,7 @@
         <v>76700</v>
       </c>
       <c r="K396" t="n">
-        <v>11.62790697674419</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L396" t="n">
         <v>253620</v>
@@ -20735,7 +20757,7 @@
         <v>76800</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L397" t="n">
         <v>253650</v>
@@ -20786,7 +20808,7 @@
         <v>77000</v>
       </c>
       <c r="K398" t="n">
-        <v>8.571428571428571</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L398" t="n">
         <v>253660</v>
@@ -20837,7 +20859,7 @@
         <v>77100</v>
       </c>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L399" t="n">
         <v>253630</v>
@@ -20888,7 +20910,7 @@
         <v>77200</v>
       </c>
       <c r="K400" t="n">
-        <v>-12.5</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L400" t="n">
         <v>253600</v>
@@ -20939,7 +20961,7 @@
         <v>77500</v>
       </c>
       <c r="K401" t="n">
-        <v>-20</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L401" t="n">
         <v>253500</v>
@@ -20990,7 +21012,7 @@
         <v>77600</v>
       </c>
       <c r="K402" t="n">
-        <v>-11.76470588235294</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L402" t="n">
         <v>253400</v>
@@ -21041,7 +21063,7 @@
         <v>77600</v>
       </c>
       <c r="K403" t="n">
-        <v>-9.090909090909092</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L403" t="n">
         <v>253310</v>
@@ -21092,7 +21114,7 @@
         <v>77600</v>
       </c>
       <c r="K404" t="n">
-        <v>-12.5</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L404" t="n">
         <v>253260</v>
@@ -21143,7 +21165,7 @@
         <v>77700</v>
       </c>
       <c r="K405" t="n">
-        <v>-3.225806451612903</v>
+        <v>-40</v>
       </c>
       <c r="L405" t="n">
         <v>253200</v>
@@ -21194,7 +21216,7 @@
         <v>77900</v>
       </c>
       <c r="K406" t="n">
-        <v>-3.225806451612903</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L406" t="n">
         <v>253180</v>
@@ -21245,7 +21267,7 @@
         <v>78100</v>
       </c>
       <c r="K407" t="n">
-        <v>-6.25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L407" t="n">
         <v>253130</v>
@@ -21296,7 +21318,7 @@
         <v>78300</v>
       </c>
       <c r="K408" t="n">
-        <v>-11.76470588235294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>253080</v>
@@ -21347,7 +21369,7 @@
         <v>78600</v>
       </c>
       <c r="K409" t="n">
-        <v>-11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>253070</v>
@@ -21398,7 +21420,7 @@
         <v>78800</v>
       </c>
       <c r="K410" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L410" t="n">
         <v>253050</v>
@@ -21449,7 +21471,7 @@
         <v>78800</v>
       </c>
       <c r="K411" t="n">
-        <v>-29.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>253060</v>
@@ -21500,7 +21522,7 @@
         <v>78900</v>
       </c>
       <c r="K412" t="n">
-        <v>-35.48387096774194</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L412" t="n">
         <v>253050</v>
@@ -21551,7 +21573,7 @@
         <v>78900</v>
       </c>
       <c r="K413" t="n">
-        <v>-33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L413" t="n">
         <v>253040</v>
@@ -21602,7 +21624,7 @@
         <v>78900</v>
       </c>
       <c r="K414" t="n">
-        <v>-23.07692307692308</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L414" t="n">
         <v>253030</v>
@@ -21653,7 +21675,7 @@
         <v>79100</v>
       </c>
       <c r="K415" t="n">
-        <v>-23.07692307692308</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L415" t="n">
         <v>253030</v>
@@ -21704,7 +21726,7 @@
         <v>79400</v>
       </c>
       <c r="K416" t="n">
-        <v>-25.92592592592592</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L416" t="n">
         <v>252980</v>
@@ -21755,7 +21777,7 @@
         <v>79500</v>
       </c>
       <c r="K417" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L417" t="n">
         <v>252940</v>
@@ -21806,7 +21828,7 @@
         <v>79500</v>
       </c>
       <c r="K418" t="n">
-        <v>-28</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L418" t="n">
         <v>252920</v>
@@ -21857,7 +21879,7 @@
         <v>79700</v>
       </c>
       <c r="K419" t="n">
-        <v>-15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L419" t="n">
         <v>252890</v>
@@ -21908,7 +21930,7 @@
         <v>79700</v>
       </c>
       <c r="K420" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L420" t="n">
         <v>252880</v>
@@ -21959,7 +21981,7 @@
         <v>79800</v>
       </c>
       <c r="K421" t="n">
-        <v>-4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L421" t="n">
         <v>252860</v>
@@ -22010,7 +22032,7 @@
         <v>79900</v>
       </c>
       <c r="K422" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L422" t="n">
         <v>252840</v>
@@ -22061,7 +22083,7 @@
         <v>79900</v>
       </c>
       <c r="K423" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L423" t="n">
         <v>252820</v>
@@ -22112,7 +22134,7 @@
         <v>80000</v>
       </c>
       <c r="K424" t="n">
-        <v>-16.66666666666666</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L424" t="n">
         <v>252790</v>
@@ -22163,7 +22185,7 @@
         <v>80000</v>
       </c>
       <c r="K425" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>252740</v>
@@ -22214,7 +22236,7 @@
         <v>80200</v>
       </c>
       <c r="K426" t="n">
-        <v>-21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L426" t="n">
         <v>252740</v>
@@ -22265,7 +22287,7 @@
         <v>80400</v>
       </c>
       <c r="K427" t="n">
-        <v>-21.73913043478261</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L427" t="n">
         <v>252730</v>
@@ -22367,7 +22389,7 @@
         <v>80700</v>
       </c>
       <c r="K429" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>252750</v>
@@ -22418,7 +22440,7 @@
         <v>80700</v>
       </c>
       <c r="K430" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L430" t="n">
         <v>252750</v>
@@ -22469,7 +22491,7 @@
         <v>80800</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>252770</v>
@@ -22520,7 +22542,7 @@
         <v>81000</v>
       </c>
       <c r="K432" t="n">
-        <v>14.28571428571428</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L432" t="n">
         <v>252820</v>
@@ -22571,7 +22593,7 @@
         <v>81000</v>
       </c>
       <c r="K433" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L433" t="n">
         <v>252870</v>
@@ -22622,7 +22644,7 @@
         <v>81000</v>
       </c>
       <c r="K434" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L434" t="n">
         <v>252930</v>
@@ -22673,7 +22695,7 @@
         <v>81200</v>
       </c>
       <c r="K435" t="n">
-        <v>-4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L435" t="n">
         <v>252970</v>
@@ -22724,7 +22746,7 @@
         <v>81200</v>
       </c>
       <c r="K436" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L436" t="n">
         <v>252990</v>
@@ -22775,7 +22797,7 @@
         <v>81200</v>
       </c>
       <c r="K437" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L437" t="n">
         <v>253030</v>
@@ -22826,7 +22848,7 @@
         <v>81400</v>
       </c>
       <c r="K438" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L438" t="n">
         <v>253020</v>
@@ -22877,7 +22899,7 @@
         <v>81400</v>
       </c>
       <c r="K439" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L439" t="n">
         <v>253010</v>
@@ -22928,7 +22950,7 @@
         <v>81800</v>
       </c>
       <c r="K440" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L440" t="n">
         <v>253040</v>
@@ -22979,7 +23001,7 @@
         <v>82100</v>
       </c>
       <c r="K441" t="n">
-        <v>30.43478260869566</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L441" t="n">
         <v>253090</v>
@@ -23030,7 +23052,7 @@
         <v>82300</v>
       </c>
       <c r="K442" t="n">
-        <v>41.66666666666667</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L442" t="n">
         <v>253140</v>
@@ -23081,7 +23103,7 @@
         <v>82600</v>
       </c>
       <c r="K443" t="n">
-        <v>48.14814814814815</v>
+        <v>50</v>
       </c>
       <c r="L443" t="n">
         <v>253220</v>
@@ -23132,7 +23154,7 @@
         <v>82800</v>
       </c>
       <c r="K444" t="n">
-        <v>57.14285714285714</v>
+        <v>75</v>
       </c>
       <c r="L444" t="n">
         <v>253320</v>
@@ -23183,7 +23205,7 @@
         <v>83100</v>
       </c>
       <c r="K445" t="n">
-        <v>61.29032258064516</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L445" t="n">
         <v>253470</v>
@@ -23234,7 +23256,7 @@
         <v>83600</v>
       </c>
       <c r="K446" t="n">
-        <v>35.29411764705883</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L446" t="n">
         <v>253570</v>
@@ -23285,7 +23307,7 @@
         <v>83600</v>
       </c>
       <c r="K447" t="n">
-        <v>43.75</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L447" t="n">
         <v>253670</v>
@@ -23336,7 +23358,7 @@
         <v>83900</v>
       </c>
       <c r="K448" t="n">
-        <v>43.75</v>
+        <v>60</v>
       </c>
       <c r="L448" t="n">
         <v>253820</v>
@@ -23387,7 +23409,7 @@
         <v>84200</v>
       </c>
       <c r="K449" t="n">
-        <v>31.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L449" t="n">
         <v>253940</v>
@@ -23438,7 +23460,7 @@
         <v>84200</v>
       </c>
       <c r="K450" t="n">
-        <v>31.42857142857143</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L450" t="n">
         <v>254020</v>
@@ -23489,7 +23511,7 @@
         <v>84500</v>
       </c>
       <c r="K451" t="n">
-        <v>18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>254040</v>
@@ -23540,7 +23562,7 @@
         <v>84500</v>
       </c>
       <c r="K452" t="n">
-        <v>14.28571428571428</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L452" t="n">
         <v>254040</v>
@@ -23591,7 +23613,7 @@
         <v>84500</v>
       </c>
       <c r="K453" t="n">
-        <v>14.28571428571428</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L453" t="n">
         <v>254010</v>
@@ -23642,7 +23664,7 @@
         <v>84500</v>
       </c>
       <c r="K454" t="n">
-        <v>14.28571428571428</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L454" t="n">
         <v>253960</v>
@@ -23693,7 +23715,7 @@
         <v>84800</v>
       </c>
       <c r="K455" t="n">
-        <v>27.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>253910</v>
@@ -23744,7 +23766,7 @@
         <v>84800</v>
       </c>
       <c r="K456" t="n">
-        <v>27.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>253910</v>
@@ -23795,7 +23817,7 @@
         <v>84900</v>
       </c>
       <c r="K457" t="n">
-        <v>24.32432432432433</v>
+        <v>-40</v>
       </c>
       <c r="L457" t="n">
         <v>253900</v>
@@ -23846,7 +23868,7 @@
         <v>85200</v>
       </c>
       <c r="K458" t="n">
-        <v>36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L458" t="n">
         <v>253890</v>
@@ -23897,7 +23919,7 @@
         <v>85500</v>
       </c>
       <c r="K459" t="n">
-        <v>41.46341463414634</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L459" t="n">
         <v>253940</v>
@@ -23948,7 +23970,7 @@
         <v>86000</v>
       </c>
       <c r="K460" t="n">
-        <v>42.85714285714285</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L460" t="n">
         <v>254040</v>
@@ -23999,7 +24021,7 @@
         <v>86000</v>
       </c>
       <c r="K461" t="n">
-        <v>38.46153846153847</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L461" t="n">
         <v>254170</v>
@@ -24050,7 +24072,7 @@
         <v>86100</v>
       </c>
       <c r="K462" t="n">
-        <v>31.57894736842105</v>
+        <v>75</v>
       </c>
       <c r="L462" t="n">
         <v>254290</v>
@@ -24101,7 +24123,7 @@
         <v>86200</v>
       </c>
       <c r="K463" t="n">
-        <v>22.22222222222222</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L463" t="n">
         <v>254400</v>
@@ -24152,7 +24174,7 @@
         <v>86200</v>
       </c>
       <c r="K464" t="n">
-        <v>17.64705882352941</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L464" t="n">
         <v>254510</v>
@@ -24203,7 +24225,7 @@
         <v>86300</v>
       </c>
       <c r="K465" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="L465" t="n">
         <v>254600</v>
@@ -24254,7 +24276,7 @@
         <v>86700</v>
       </c>
       <c r="K466" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>254650</v>
@@ -24305,7 +24327,7 @@
         <v>86700</v>
       </c>
       <c r="K467" t="n">
-        <v>16.12903225806452</v>
+        <v>20</v>
       </c>
       <c r="L467" t="n">
         <v>254710</v>
@@ -24356,7 +24378,7 @@
         <v>86900</v>
       </c>
       <c r="K468" t="n">
-        <v>13.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L468" t="n">
         <v>254760</v>
@@ -24407,7 +24429,7 @@
         <v>86900</v>
       </c>
       <c r="K469" t="n">
-        <v>25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L469" t="n">
         <v>254780</v>
@@ -24458,7 +24480,7 @@
         <v>87000</v>
       </c>
       <c r="K470" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L470" t="n">
         <v>254760</v>
@@ -24509,7 +24531,7 @@
         <v>87000</v>
       </c>
       <c r="K471" t="n">
-        <v>44</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L471" t="n">
         <v>254740</v>
@@ -24560,7 +24582,7 @@
         <v>87000</v>
       </c>
       <c r="K472" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>254730</v>
@@ -24611,7 +24633,7 @@
         <v>87200</v>
       </c>
       <c r="K473" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L473" t="n">
         <v>254710</v>
@@ -24662,7 +24684,7 @@
         <v>87400</v>
       </c>
       <c r="K474" t="n">
-        <v>37.93103448275862</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L474" t="n">
         <v>254710</v>
@@ -24713,7 +24735,7 @@
         <v>87400</v>
       </c>
       <c r="K475" t="n">
-        <v>30.76923076923077</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L475" t="n">
         <v>254700</v>
@@ -24764,7 +24786,7 @@
         <v>87600</v>
       </c>
       <c r="K476" t="n">
-        <v>21.42857142857143</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L476" t="n">
         <v>254710</v>
@@ -24815,7 +24837,7 @@
         <v>87700</v>
       </c>
       <c r="K477" t="n">
-        <v>21.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L477" t="n">
         <v>254710</v>
@@ -24866,7 +24888,7 @@
         <v>87700</v>
       </c>
       <c r="K478" t="n">
-        <v>12</v>
+        <v>-25</v>
       </c>
       <c r="L478" t="n">
         <v>254690</v>
@@ -24917,7 +24939,7 @@
         <v>87700</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L479" t="n">
         <v>254670</v>
@@ -24968,7 +24990,7 @@
         <v>87800</v>
       </c>
       <c r="K480" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L480" t="n">
         <v>254650</v>
@@ -25019,7 +25041,7 @@
         <v>87900</v>
       </c>
       <c r="K481" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L481" t="n">
         <v>254640</v>
@@ -25070,7 +25092,7 @@
         <v>88000</v>
       </c>
       <c r="K482" t="n">
-        <v>-5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L482" t="n">
         <v>254640</v>
@@ -25121,7 +25143,7 @@
         <v>88300</v>
       </c>
       <c r="K483" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L483" t="n">
         <v>254630</v>
@@ -25172,7 +25194,7 @@
         <v>88400</v>
       </c>
       <c r="K484" t="n">
-        <v>-18.18181818181818</v>
+        <v>-40</v>
       </c>
       <c r="L484" t="n">
         <v>254590</v>
@@ -25223,7 +25245,7 @@
         <v>88400</v>
       </c>
       <c r="K485" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L485" t="n">
         <v>254550</v>
@@ -25274,7 +25296,7 @@
         <v>88400</v>
       </c>
       <c r="K486" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L486" t="n">
         <v>254530</v>
@@ -25325,7 +25347,7 @@
         <v>88800</v>
       </c>
       <c r="K487" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L487" t="n">
         <v>254560</v>
@@ -25376,7 +25398,7 @@
         <v>88800</v>
       </c>
       <c r="K488" t="n">
-        <v>5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L488" t="n">
         <v>254590</v>
@@ -25427,7 +25449,7 @@
         <v>89100</v>
       </c>
       <c r="K489" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L489" t="n">
         <v>254590</v>
@@ -25478,7 +25500,7 @@
         <v>89600</v>
       </c>
       <c r="K490" t="n">
-        <v>7.692307692307693</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L490" t="n">
         <v>254630</v>
@@ -25529,7 +25551,7 @@
         <v>90100</v>
       </c>
       <c r="K491" t="n">
-        <v>-9.67741935483871</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L491" t="n">
         <v>254610</v>
@@ -25580,7 +25602,7 @@
         <v>90400</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L492" t="n">
         <v>254610</v>
@@ -25631,7 +25653,7 @@
         <v>90500</v>
       </c>
       <c r="K493" t="n">
-        <v>9.090909090909092</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L493" t="n">
         <v>254650</v>
@@ -25682,7 +25704,7 @@
         <v>90600</v>
       </c>
       <c r="K494" t="n">
-        <v>6.25</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L494" t="n">
         <v>254710</v>
@@ -25733,7 +25755,7 @@
         <v>90900</v>
       </c>
       <c r="K495" t="n">
-        <v>14.28571428571428</v>
+        <v>36</v>
       </c>
       <c r="L495" t="n">
         <v>254800</v>
@@ -25784,7 +25806,7 @@
         <v>90900</v>
       </c>
       <c r="K496" t="n">
-        <v>21.21212121212121</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L496" t="n">
         <v>254890</v>
@@ -25835,7 +25857,7 @@
         <v>90900</v>
       </c>
       <c r="K497" t="n">
-        <v>25</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L497" t="n">
         <v>254940</v>
@@ -25886,7 +25908,7 @@
         <v>91200</v>
       </c>
       <c r="K498" t="n">
-        <v>14.28571428571428</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L498" t="n">
         <v>254960</v>
@@ -25937,7 +25959,7 @@
         <v>91400</v>
       </c>
       <c r="K499" t="n">
-        <v>18.91891891891892</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L499" t="n">
         <v>255030</v>
@@ -25988,7 +26010,7 @@
         <v>91600</v>
       </c>
       <c r="K500" t="n">
-        <v>10.52631578947368</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L500" t="n">
         <v>255030</v>
@@ -26039,7 +26061,7 @@
         <v>91800</v>
       </c>
       <c r="K501" t="n">
-        <v>12.82051282051282</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L501" t="n">
         <v>255100</v>
@@ -26090,7 +26112,7 @@
         <v>92100</v>
       </c>
       <c r="K502" t="n">
-        <v>17.07317073170732</v>
+        <v>37.5</v>
       </c>
       <c r="L502" t="n">
         <v>255170</v>
@@ -26141,7 +26163,7 @@
         <v>92500</v>
       </c>
       <c r="K503" t="n">
-        <v>14.28571428571428</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L503" t="n">
         <v>255190</v>
@@ -26192,7 +26214,7 @@
         <v>92800</v>
       </c>
       <c r="K504" t="n">
-        <v>22.72727272727273</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L504" t="n">
         <v>255230</v>
@@ -26243,7 +26265,7 @@
         <v>92800</v>
       </c>
       <c r="K505" t="n">
-        <v>22.72727272727273</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L505" t="n">
         <v>255240</v>
@@ -26294,7 +26316,7 @@
         <v>92800</v>
       </c>
       <c r="K506" t="n">
-        <v>22.72727272727273</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L506" t="n">
         <v>255250</v>
@@ -26345,7 +26367,7 @@
         <v>93200</v>
       </c>
       <c r="K507" t="n">
-        <v>22.72727272727273</v>
+        <v>40</v>
       </c>
       <c r="L507" t="n">
         <v>255300</v>
@@ -26396,7 +26418,7 @@
         <v>93200</v>
       </c>
       <c r="K508" t="n">
-        <v>22.72727272727273</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>255380</v>
@@ -26447,7 +26469,7 @@
         <v>93200</v>
       </c>
       <c r="K509" t="n">
-        <v>31.70731707317073</v>
+        <v>50</v>
       </c>
       <c r="L509" t="n">
         <v>255440</v>
@@ -26498,7 +26520,7 @@
         <v>93700</v>
       </c>
       <c r="K510" t="n">
-        <v>7.317073170731707</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L510" t="n">
         <v>255470</v>
@@ -26549,7 +26571,7 @@
         <v>93900</v>
       </c>
       <c r="K511" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>255500</v>
@@ -26600,7 +26622,7 @@
         <v>94000</v>
       </c>
       <c r="K512" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>255490</v>
@@ -26651,7 +26673,7 @@
         <v>94000</v>
       </c>
       <c r="K513" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>255520</v>
@@ -26702,7 +26724,7 @@
         <v>94300</v>
       </c>
       <c r="K514" t="n">
-        <v>18.91891891891892</v>
+        <v>20</v>
       </c>
       <c r="L514" t="n">
         <v>255550</v>
@@ -26753,7 +26775,7 @@
         <v>94300</v>
       </c>
       <c r="K515" t="n">
-        <v>11.76470588235294</v>
+        <v>20</v>
       </c>
       <c r="L515" t="n">
         <v>255580</v>
@@ -26804,7 +26826,7 @@
         <v>94400</v>
       </c>
       <c r="K516" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>255620</v>
@@ -26855,7 +26877,7 @@
         <v>94500</v>
       </c>
       <c r="K517" t="n">
-        <v>11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L517" t="n">
         <v>255610</v>
@@ -26906,7 +26928,7 @@
         <v>94700</v>
       </c>
       <c r="K518" t="n">
-        <v>25.71428571428571</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L518" t="n">
         <v>255620</v>
@@ -26957,7 +26979,7 @@
         <v>95000</v>
       </c>
       <c r="K519" t="n">
-        <v>11.11111111111111</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L519" t="n">
         <v>255600</v>
@@ -27008,7 +27030,7 @@
         <v>95000</v>
       </c>
       <c r="K520" t="n">
-        <v>17.64705882352941</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L520" t="n">
         <v>255630</v>
@@ -27059,7 +27081,7 @@
         <v>96000</v>
       </c>
       <c r="K521" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L521" t="n">
         <v>255740</v>
@@ -27110,7 +27132,7 @@
         <v>96900</v>
       </c>
       <c r="K522" t="n">
-        <v>41.66666666666667</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L522" t="n">
         <v>255950</v>
@@ -27161,7 +27183,7 @@
         <v>96900</v>
       </c>
       <c r="K523" t="n">
-        <v>54.54545454545454</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L523" t="n">
         <v>256160</v>
@@ -27212,7 +27234,7 @@
         <v>97000</v>
       </c>
       <c r="K524" t="n">
-        <v>52.38095238095239</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L524" t="n">
         <v>256350</v>
@@ -27263,7 +27285,7 @@
         <v>97400</v>
       </c>
       <c r="K525" t="n">
-        <v>39.1304347826087</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L525" t="n">
         <v>256500</v>
@@ -27314,7 +27336,7 @@
         <v>98300</v>
       </c>
       <c r="K526" t="n">
-        <v>49.09090909090909</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="L526" t="n">
         <v>256730</v>
@@ -27365,7 +27387,7 @@
         <v>98600</v>
       </c>
       <c r="K527" t="n">
-        <v>37.03703703703704</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L527" t="n">
         <v>256940</v>
@@ -27416,7 +27438,7 @@
         <v>99200</v>
       </c>
       <c r="K528" t="n">
-        <v>43.33333333333334</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L528" t="n">
         <v>257190</v>
@@ -27467,7 +27489,7 @@
         <v>100100</v>
       </c>
       <c r="K529" t="n">
-        <v>50.72463768115942</v>
+        <v>72.54901960784314</v>
       </c>
       <c r="L529" t="n">
         <v>257560</v>
@@ -27518,7 +27540,7 @@
         <v>101000</v>
       </c>
       <c r="K530" t="n">
-        <v>42.46575342465754</v>
+        <v>36</v>
       </c>
       <c r="L530" t="n">
         <v>257840</v>
@@ -27569,7 +27591,7 @@
         <v>101300</v>
       </c>
       <c r="K531" t="n">
-        <v>35.13513513513514</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L531" t="n">
         <v>257990</v>
@@ -27620,7 +27642,7 @@
         <v>101500</v>
       </c>
       <c r="K532" t="n">
-        <v>38.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L532" t="n">
         <v>258070</v>
@@ -27671,7 +27693,7 @@
         <v>101700</v>
       </c>
       <c r="K533" t="n">
-        <v>40.25974025974026</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L533" t="n">
         <v>258170</v>
@@ -27722,7 +27744,7 @@
         <v>102400</v>
       </c>
       <c r="K534" t="n">
-        <v>43.20987654320987</v>
+        <v>40</v>
       </c>
       <c r="L534" t="n">
         <v>258330</v>
@@ -27773,7 +27795,7 @@
         <v>102500</v>
       </c>
       <c r="K535" t="n">
-        <v>41.46341463414634</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L535" t="n">
         <v>258520</v>
@@ -27824,7 +27846,7 @@
         <v>102500</v>
       </c>
       <c r="K536" t="n">
-        <v>40.74074074074074</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L536" t="n">
         <v>258620</v>
@@ -27875,7 +27897,7 @@
         <v>103200</v>
       </c>
       <c r="K537" t="n">
-        <v>31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
         <v>258680</v>
@@ -27926,7 +27948,7 @@
         <v>103200</v>
       </c>
       <c r="K538" t="n">
-        <v>29.41176470588236</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L538" t="n">
         <v>258680</v>
@@ -27977,7 +27999,7 @@
         <v>103300</v>
       </c>
       <c r="K539" t="n">
-        <v>34.93975903614458</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L539" t="n">
         <v>258600</v>
@@ -28028,7 +28050,7 @@
         <v>103400</v>
       </c>
       <c r="K540" t="n">
-        <v>35.71428571428572</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L540" t="n">
         <v>258620</v>
@@ -28079,7 +28101,7 @@
         <v>103400</v>
       </c>
       <c r="K541" t="n">
-        <v>27.02702702702703</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L541" t="n">
         <v>258670</v>
@@ -28130,7 +28152,7 @@
         <v>103600</v>
       </c>
       <c r="K542" t="n">
-        <v>19.40298507462687</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L542" t="n">
         <v>258720</v>
@@ -28181,7 +28203,7 @@
         <v>103800</v>
       </c>
       <c r="K543" t="n">
-        <v>21.73913043478261</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L543" t="n">
         <v>258770</v>
@@ -28232,7 +28254,7 @@
         <v>103800</v>
       </c>
       <c r="K544" t="n">
-        <v>20.58823529411764</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L544" t="n">
         <v>258750</v>
@@ -28283,7 +28305,7 @@
         <v>104300</v>
       </c>
       <c r="K545" t="n">
-        <v>33.33333333333333</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L545" t="n">
         <v>258790</v>
@@ -28334,7 +28356,7 @@
         <v>105300</v>
       </c>
       <c r="K546" t="n">
-        <v>34.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L546" t="n">
         <v>258930</v>
@@ -28385,7 +28407,7 @@
         <v>105600</v>
       </c>
       <c r="K547" t="n">
-        <v>34.28571428571428</v>
+        <v>75</v>
       </c>
       <c r="L547" t="n">
         <v>259110</v>
@@ -28436,7 +28458,7 @@
         <v>106000</v>
       </c>
       <c r="K548" t="n">
-        <v>20.58823529411764</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L548" t="n">
         <v>259250</v>
@@ -28487,7 +28509,7 @@
         <v>106200</v>
       </c>
       <c r="K549" t="n">
-        <v>4.918032786885246</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L549" t="n">
         <v>259360</v>
@@ -28538,7 +28560,7 @@
         <v>106300</v>
       </c>
       <c r="K550" t="n">
-        <v>24.52830188679245</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L550" t="n">
         <v>259470</v>

--- a/BackTest/2019-10-20 BackTest BCH.xlsx
+++ b/BackTest/2019-10-20 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-47.00720061000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-39.75440061000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-79.10240061000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-129.03040061</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-44.25933657000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-63.68783657000003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-130.01073657</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-119.75043657</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-104.88763657</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-104.88763657</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-81.00253657000005</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-81.00253657000005</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-157.2520365700001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-157.2520365700001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -10483,11 +10483,17 @@
         <v>-682.6553876300001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>251800</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,7 +10522,7 @@
         <v>-682.6553876300001</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>251700</v>
@@ -10524,7 +10530,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -10555,7 +10561,7 @@
         <v>-682.5131876300001</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>251700</v>
@@ -10594,7 +10600,7 @@
         <v>-678.1131876300001</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>251900</v>
@@ -10633,7 +10639,7 @@
         <v>-678.0469876300001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>252100</v>
@@ -10672,9 +10678,11 @@
         <v>-682.0214876300001</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>252300</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -10820,11 +10828,9 @@
         <v>-686.2564876300002</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>252300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -14226,9 +14232,11 @@
         <v>-829.8473550599998</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>251400</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14707,7 +14715,7 @@
         <v>-815.7340550599998</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14744,7 +14752,7 @@
         <v>-816.2149550599999</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14781,7 +14789,7 @@
         <v>-820.2137550599998</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14818,7 +14826,7 @@
         <v>-820.2137550599998</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14855,7 +14863,7 @@
         <v>-820.2137550599998</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14892,7 +14900,7 @@
         <v>-827.5723550599998</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14929,7 +14937,7 @@
         <v>-856.7847550599998</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14966,7 +14974,7 @@
         <v>-910.8489550599999</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15003,7 +15011,7 @@
         <v>-853.9169550599999</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15077,7 +15085,7 @@
         <v>-860.7998550599998</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15114,7 +15122,7 @@
         <v>-860.7898550599998</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15151,7 +15159,7 @@
         <v>-860.7898550599998</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15188,7 +15196,7 @@
         <v>-838.4182550599999</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15225,7 +15233,7 @@
         <v>-862.6586550599999</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15262,7 +15270,7 @@
         <v>-892.8317550599999</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15299,7 +15307,7 @@
         <v>-876.3628550599999</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15336,7 +15344,7 @@
         <v>-928.9026550599999</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15373,7 +15381,7 @@
         <v>-922.7906550599999</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15410,7 +15418,7 @@
         <v>-916.5915550599999</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15447,7 +15455,7 @@
         <v>-916.5915550599999</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15484,7 +15492,7 @@
         <v>-919.0864550599999</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15521,7 +15529,7 @@
         <v>-927.26875506</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15595,7 +15603,7 @@
         <v>-920.18535506</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15632,7 +15640,7 @@
         <v>-918.15535506</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15669,7 +15677,7 @@
         <v>-918.8151550600001</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15743,7 +15751,7 @@
         <v>-912.1755550600001</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15891,7 +15899,7 @@
         <v>-912.6169550600001</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16335,7 +16343,7 @@
         <v>-938.4456550599999</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16483,7 +16491,7 @@
         <v>-932.0887550599999</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18444,7 +18452,7 @@
         <v>-669.5640488600001</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18518,7 +18526,7 @@
         <v>-669.74214886</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18592,7 +18600,7 @@
         <v>-747.1487488600001</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18666,7 +18674,7 @@
         <v>-738.5054488600001</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18703,7 +18711,7 @@
         <v>-738.5054488600001</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18740,7 +18748,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19110,7 +19118,7 @@
         <v>-737.1021488600001</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19184,7 +19192,7 @@
         <v>-735.6824488600001</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19554,7 +19562,7 @@
         <v>-708.0129488600001</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19628,7 +19636,7 @@
         <v>-692.38894886</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19665,7 +19673,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19702,7 +19710,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19739,7 +19747,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19776,7 +19784,7 @@
         <v>-685.8480488600001</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19850,7 +19858,7 @@
         <v>-703.3946488600001</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20072,16 +20080,18 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L565" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
       <c r="M565" t="inlineStr"/>
     </row>
     <row r="566">
@@ -20107,11 +20117,15 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20140,11 +20154,15 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20177,7 +20195,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20206,11 +20228,15 @@
         <v>-660.4992488600001</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20239,11 +20265,15 @@
         <v>-660.3604488600001</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20272,11 +20302,15 @@
         <v>-660.5435488600001</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20305,11 +20339,15 @@
         <v>-660.5435488600001</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20338,11 +20376,15 @@
         <v>-638.3708488600001</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20375,7 +20417,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20408,7 +20454,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20441,7 +20491,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20470,11 +20524,15 @@
         <v>-630.9248472100002</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20503,11 +20561,15 @@
         <v>-632.2366472100001</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20536,11 +20598,15 @@
         <v>-632.2366472100001</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20569,11 +20635,15 @@
         <v>-469.3598472100001</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20602,11 +20672,15 @@
         <v>-326.8370472100002</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20635,11 +20709,15 @@
         <v>-326.8370472100002</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20668,11 +20746,15 @@
         <v>-314.0463472100001</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20701,11 +20783,15 @@
         <v>-316.5320472100001</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20734,11 +20820,15 @@
         <v>-298.6453472100001</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20767,11 +20857,15 @@
         <v>-305.6453472100001</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20800,11 +20894,15 @@
         <v>-255.0106472100001</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20833,11 +20931,15 @@
         <v>-113.4809472100001</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20866,11 +20968,15 @@
         <v>-248.2557472100001</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20899,11 +21005,15 @@
         <v>-250.0001472100001</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20932,11 +21042,15 @@
         <v>-230.7349472100001</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20965,11 +21079,15 @@
         <v>-199.5479472100001</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20998,14 +21116,16 @@
         <v>-188.4701472100001</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="inlineStr"/>
     </row>
     <row r="594">
@@ -21031,7 +21151,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21064,7 +21184,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21097,7 +21217,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21130,7 +21250,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21163,7 +21283,7 @@
         <v>-332.2521472100001</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21174,6 +21294,6 @@
       <c r="M598" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest BCH.xlsx
+++ b/BackTest/2019-10-20 BackTest BCH.xlsx
@@ -1804,7 +1804,7 @@
         <v>-57.98863657000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-64.29233657000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-73.19923657000002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-38.32313657000002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-38.82203657000002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-38.82203657000002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-39.60163657000003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-37.41533657000002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-37.41533657000002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-37.91533657000002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-38.11233657000002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-36.17803657000002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-36.21763657000002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-41.84303657000002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-39.75653657000002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-44.75653657000002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-44.25933657000002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-46.95783657000003</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-47.40663657000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-65.10653657000003</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-98.44803657000004</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-98.57303657000004</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-106.8655337500002</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-106.6655337500002</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-102.9668337500002</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-152.9593337500002</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-152.9593337500002</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-201.9310337500002</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-453.0083337500002</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-453.0083337500002</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -13651,10 +13651,14 @@
         <v>-841.3731759299998</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>251900</v>
+      </c>
+      <c r="J402" t="n">
+        <v>251900</v>
+      </c>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
@@ -13684,11 +13688,19 @@
         <v>-841.3731759299998</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>251800</v>
+      </c>
+      <c r="J403" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13729,19 @@
         <v>-844.8978759299998</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>251800</v>
+      </c>
+      <c r="J404" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13770,19 @@
         <v>-849.6931759299998</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>251700</v>
+      </c>
+      <c r="J405" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13811,19 @@
         <v>-849.6931759299998</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>251400</v>
+      </c>
+      <c r="J406" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13852,19 @@
         <v>-829.8473550599998</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>251400</v>
+      </c>
+      <c r="J407" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13893,19 @@
         <v>-847.9323550599998</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>252000</v>
+      </c>
+      <c r="J408" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13934,19 @@
         <v>-841.2683550599999</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>251300</v>
+      </c>
+      <c r="J409" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +13975,19 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>251800</v>
+      </c>
+      <c r="J410" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14016,19 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>252200</v>
+      </c>
+      <c r="J411" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14057,19 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>252200</v>
+      </c>
+      <c r="J412" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14098,19 @@
         <v>-835.2508550599998</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>252200</v>
+      </c>
+      <c r="J413" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14139,19 @@
         <v>-835.2508550599998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>252400</v>
+      </c>
+      <c r="J414" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14180,19 @@
         <v>-825.9117550599998</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>252400</v>
+      </c>
+      <c r="J415" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14116,8 +14224,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14149,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +14302,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +14341,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14248,8 +14380,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14281,8 +14419,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14314,8 +14458,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14347,8 +14497,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +14536,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +14575,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14446,8 +14614,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +14653,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14512,8 +14692,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14545,8 +14731,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14578,8 +14770,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14611,8 +14809,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14644,8 +14848,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14677,8 +14887,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14710,8 +14926,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14743,8 +14965,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +15004,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +15043,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +15082,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +15121,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +15160,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +15199,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +15238,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15007,8 +15277,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15313,19 @@
         <v>-920.18535506</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>253400</v>
+      </c>
+      <c r="J444" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +15357,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +15396,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15432,19 @@
         <v>-918.8151550600001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>253300</v>
+      </c>
+      <c r="J447" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15473,19 @@
         <v>-912.1755550600001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>253300</v>
+      </c>
+      <c r="J448" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15514,19 @@
         <v>-930.4522550600001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>253600</v>
+      </c>
+      <c r="J449" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15555,19 @@
         <v>-916.9852550600001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>253500</v>
+      </c>
+      <c r="J450" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15596,19 @@
         <v>-912.5382550600001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>253900</v>
+      </c>
+      <c r="J451" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15637,17 @@
         <v>-912.6169550600001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15676,17 @@
         <v>-913.1968550600001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15715,19 @@
         <v>-913.0488550600001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>253500</v>
+      </c>
+      <c r="J454" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15756,19 @@
         <v>-914.62545506</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>253700</v>
+      </c>
+      <c r="J455" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15797,19 @@
         <v>-910.62545506</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>253500</v>
+      </c>
+      <c r="J456" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15838,19 @@
         <v>-920.62545506</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>253600</v>
+      </c>
+      <c r="J457" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15879,19 @@
         <v>-924.81715506</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>253400</v>
+      </c>
+      <c r="J458" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15920,19 @@
         <v>-927.77705506</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>253300</v>
+      </c>
+      <c r="J459" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15961,19 @@
         <v>-942.03785506</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>253200</v>
+      </c>
+      <c r="J460" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +16002,19 @@
         <v>-940.0601550599999</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>252900</v>
+      </c>
+      <c r="J461" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +16043,19 @@
         <v>-940.0601550599999</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>253000</v>
+      </c>
+      <c r="J462" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +16084,19 @@
         <v>-940.0601550599999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>253000</v>
+      </c>
+      <c r="J463" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16125,19 @@
         <v>-938.4456550599999</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>253000</v>
+      </c>
+      <c r="J464" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16166,19 @@
         <v>-938.0666550599999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>253100</v>
+      </c>
+      <c r="J465" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15766,8 +16210,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16246,19 @@
         <v>-938.9415550599999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>253100</v>
+      </c>
+      <c r="J467" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16287,19 @@
         <v>-932.0887550599999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>252900</v>
+      </c>
+      <c r="J468" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +16331,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15898,8 +16370,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,15 +16406,17 @@
         <v>-949.34305506</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>253000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>253000</v>
-      </c>
-      <c r="K471" t="inlineStr"/>
+        <v>251900</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,17 +16445,15 @@
         <v>-949.34305506</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>252900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>253000</v>
+        <v>251900</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -16006,17 +16484,15 @@
         <v>-949.34305506</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>252900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>253000</v>
+        <v>251900</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L473" t="n">
@@ -16047,15 +16523,17 @@
         <v>-948.15774886</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>252900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>252900</v>
-      </c>
-      <c r="K474" t="inlineStr"/>
+        <v>251900</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16084,17 +16562,15 @@
         <v>-955.04944886</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>253100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -16125,13 +16601,11 @@
         <v>-975.04944886</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>252800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16166,13 +16640,11 @@
         <v>-975.04944886</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>252700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16207,13 +16679,11 @@
         <v>-960.80784886</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>252700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16248,13 +16718,11 @@
         <v>-960.80784886</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>252900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16289,13 +16757,11 @@
         <v>-966.60234886</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>252900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16336,7 +16802,7 @@
         <v>252800</v>
       </c>
       <c r="J481" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16377,7 +16843,7 @@
         <v>252700</v>
       </c>
       <c r="J482" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16418,7 +16884,7 @@
         <v>252700</v>
       </c>
       <c r="J483" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16459,7 +16925,7 @@
         <v>252600</v>
       </c>
       <c r="J484" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16500,7 +16966,7 @@
         <v>252600</v>
       </c>
       <c r="J485" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16541,7 +17007,7 @@
         <v>252800</v>
       </c>
       <c r="J486" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16582,7 +17048,7 @@
         <v>252600</v>
       </c>
       <c r="J487" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16623,7 +17089,7 @@
         <v>252900</v>
       </c>
       <c r="J488" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16664,7 +17130,7 @@
         <v>252900</v>
       </c>
       <c r="J489" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16705,7 +17171,7 @@
         <v>252900</v>
       </c>
       <c r="J490" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16746,7 +17212,7 @@
         <v>253000</v>
       </c>
       <c r="J491" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -16787,7 +17253,7 @@
         <v>253200</v>
       </c>
       <c r="J492" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -16828,7 +17294,7 @@
         <v>253200</v>
       </c>
       <c r="J493" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -16869,7 +17335,7 @@
         <v>253200</v>
       </c>
       <c r="J494" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -16910,7 +17376,7 @@
         <v>253000</v>
       </c>
       <c r="J495" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -16951,7 +17417,7 @@
         <v>253000</v>
       </c>
       <c r="J496" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -16992,7 +17458,7 @@
         <v>253000</v>
       </c>
       <c r="J497" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17033,7 +17499,7 @@
         <v>252800</v>
       </c>
       <c r="J498" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17074,7 +17540,7 @@
         <v>252800</v>
       </c>
       <c r="J499" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17115,7 +17581,7 @@
         <v>253200</v>
       </c>
       <c r="J500" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17154,7 +17620,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17193,7 +17659,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17232,7 +17698,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17271,7 +17737,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17310,7 +17776,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17349,7 +17815,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17388,7 +17854,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17427,7 +17893,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17466,7 +17932,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17505,7 +17971,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17544,7 +18010,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17583,7 +18049,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17622,7 +18088,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17661,7 +18127,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17700,7 +18166,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17739,7 +18205,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17778,7 +18244,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -17817,7 +18283,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -17856,7 +18322,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -17891,2296 +18357,2710 @@
         <v>-660.4068488600001</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>252900</v>
+        <v>251900</v>
       </c>
       <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>254900</v>
+      </c>
+      <c r="C521" t="n">
+        <v>254900</v>
+      </c>
+      <c r="D521" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E521" t="n">
+        <v>254900</v>
+      </c>
+      <c r="F521" t="n">
+        <v>9.1572</v>
+      </c>
+      <c r="G521" t="n">
+        <v>-669.5640488600001</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L521" t="n">
+        <v>1</v>
+      </c>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C522" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D522" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E522" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-669.74214886</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C523" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D523" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E523" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F523" t="n">
+        <v>23.7711</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-669.74214886</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>254900</v>
+      </c>
+      <c r="C524" t="n">
+        <v>254900</v>
+      </c>
+      <c r="D524" t="n">
+        <v>254900</v>
+      </c>
+      <c r="E524" t="n">
+        <v>254900</v>
+      </c>
+      <c r="F524" t="n">
+        <v>22.7216</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-647.0205488600001</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>254600</v>
+      </c>
+      <c r="C525" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D525" t="n">
+        <v>254600</v>
+      </c>
+      <c r="E525" t="n">
+        <v>254100</v>
+      </c>
+      <c r="F525" t="n">
+        <v>100.1282</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-747.1487488600001</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C526" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D526" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E526" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F526" t="n">
+        <v>4.5852</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-747.1487488600001</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>254600</v>
+      </c>
+      <c r="C527" t="n">
+        <v>254700</v>
+      </c>
+      <c r="D527" t="n">
+        <v>254700</v>
+      </c>
+      <c r="E527" t="n">
+        <v>254600</v>
+      </c>
+      <c r="F527" t="n">
+        <v>8.6433</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-738.5054488600001</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>254700</v>
+      </c>
+      <c r="C528" t="n">
+        <v>254700</v>
+      </c>
+      <c r="D528" t="n">
+        <v>254700</v>
+      </c>
+      <c r="E528" t="n">
+        <v>254700</v>
+      </c>
+      <c r="F528" t="n">
+        <v>21.6083</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-738.5054488600001</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C529" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D529" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E529" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F529" t="n">
+        <v>5.2063</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-733.2991488600001</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C530" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D530" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E530" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F530" t="n">
+        <v>4.8329</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-733.2991488600001</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C531" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D531" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E531" t="n">
+        <v>254600</v>
+      </c>
+      <c r="F531" t="n">
+        <v>22.5488</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-733.2991488600001</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>254600</v>
+      </c>
+      <c r="C532" t="n">
+        <v>254600</v>
+      </c>
+      <c r="D532" t="n">
+        <v>254600</v>
+      </c>
+      <c r="E532" t="n">
+        <v>254600</v>
+      </c>
+      <c r="F532" t="n">
+        <v>39</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-772.2991488600001</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C533" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D533" t="n">
+        <v>254900</v>
+      </c>
+      <c r="E533" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F533" t="n">
+        <v>36.0527</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-736.2464488600001</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C534" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D534" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E534" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F534" t="n">
+        <v>3.6762</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-736.2464488600001</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C535" t="n">
+        <v>254600</v>
+      </c>
+      <c r="D535" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E535" t="n">
+        <v>254600</v>
+      </c>
+      <c r="F535" t="n">
+        <v>8.5382</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-744.7846488600001</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C536" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D536" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E536" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1.5561</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-746.3407488600001</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>254200</v>
+      </c>
+      <c r="C537" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D537" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E537" t="n">
+        <v>254200</v>
+      </c>
+      <c r="F537" t="n">
+        <v>13.3715</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-746.3407488600001</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C538" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D538" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E538" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-746.3407488600001</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>254600</v>
+      </c>
+      <c r="C539" t="n">
+        <v>254600</v>
+      </c>
+      <c r="D539" t="n">
+        <v>254600</v>
+      </c>
+      <c r="E539" t="n">
+        <v>254600</v>
+      </c>
+      <c r="F539" t="n">
+        <v>9.2386</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-737.1021488600001</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>254700</v>
+      </c>
+      <c r="C540" t="n">
+        <v>254700</v>
+      </c>
+      <c r="D540" t="n">
+        <v>254700</v>
+      </c>
+      <c r="E540" t="n">
+        <v>254700</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.2406</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-736.8615488600001</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>254400</v>
+      </c>
+      <c r="C541" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D541" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E541" t="n">
+        <v>254400</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1.1791</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-735.6824488600001</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C542" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D542" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E542" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F542" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-738.2824488600002</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>254400</v>
+      </c>
+      <c r="C543" t="n">
+        <v>254400</v>
+      </c>
+      <c r="D543" t="n">
+        <v>254400</v>
+      </c>
+      <c r="E543" t="n">
+        <v>254400</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-739.2649488600001</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C544" t="n">
+        <v>254400</v>
+      </c>
+      <c r="D544" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E544" t="n">
+        <v>254400</v>
+      </c>
+      <c r="F544" t="n">
+        <v>18.8178</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-739.2649488600001</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>254700</v>
+      </c>
+      <c r="C545" t="n">
+        <v>254400</v>
+      </c>
+      <c r="D545" t="n">
+        <v>254700</v>
+      </c>
+      <c r="E545" t="n">
+        <v>254300</v>
+      </c>
+      <c r="F545" t="n">
+        <v>60.0814</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-739.2649488600001</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C546" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D546" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E546" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-739.2631488600001</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C547" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D547" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E547" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F547" t="n">
+        <v>30.8038854</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-739.2631488600001</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C548" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D548" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E548" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F548" t="n">
+        <v>11.8054</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-751.0685488600001</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C549" t="n">
+        <v>255000</v>
+      </c>
+      <c r="D549" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E549" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F549" t="n">
+        <v>49.9112</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-701.1573488600001</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C550" t="n">
+        <v>254500</v>
+      </c>
+      <c r="D550" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E550" t="n">
+        <v>254500</v>
+      </c>
+      <c r="F550" t="n">
+        <v>24.9556</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-726.1129488600001</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>254800</v>
+      </c>
+      <c r="C551" t="n">
+        <v>254800</v>
+      </c>
+      <c r="D551" t="n">
+        <v>254800</v>
+      </c>
+      <c r="E551" t="n">
+        <v>254800</v>
+      </c>
+      <c r="F551" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-708.0129488600001</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>254900</v>
+      </c>
+      <c r="C552" t="n">
+        <v>254900</v>
+      </c>
+      <c r="D552" t="n">
+        <v>254900</v>
+      </c>
+      <c r="E552" t="n">
+        <v>254900</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-707.8362488600001</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>254900</v>
+      </c>
+      <c r="C553" t="n">
+        <v>255000</v>
+      </c>
+      <c r="D553" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E553" t="n">
+        <v>254900</v>
+      </c>
+      <c r="F553" t="n">
+        <v>15.4473</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-692.38894886</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>255000</v>
+      </c>
+      <c r="C554" t="n">
+        <v>255300</v>
+      </c>
+      <c r="D554" t="n">
+        <v>255300</v>
+      </c>
+      <c r="E554" t="n">
+        <v>255000</v>
+      </c>
+      <c r="F554" t="n">
+        <v>56.5409</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-635.8480488600001</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>255300</v>
+      </c>
+      <c r="C555" t="n">
+        <v>255300</v>
+      </c>
+      <c r="D555" t="n">
+        <v>255300</v>
+      </c>
+      <c r="E555" t="n">
+        <v>255300</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-635.8480488600001</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>255100</v>
+      </c>
+      <c r="C556" t="n">
+        <v>255300</v>
+      </c>
+      <c r="D556" t="n">
+        <v>255300</v>
+      </c>
+      <c r="E556" t="n">
+        <v>255100</v>
+      </c>
+      <c r="F556" t="n">
+        <v>4.731</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-635.8480488600001</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>255100</v>
+      </c>
+      <c r="C557" t="n">
+        <v>255000</v>
+      </c>
+      <c r="D557" t="n">
+        <v>255100</v>
+      </c>
+      <c r="E557" t="n">
+        <v>255000</v>
+      </c>
+      <c r="F557" t="n">
+        <v>50</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-685.8480488600001</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>255200</v>
+      </c>
+      <c r="C558" t="n">
+        <v>255200</v>
+      </c>
+      <c r="D558" t="n">
+        <v>255200</v>
+      </c>
+      <c r="E558" t="n">
+        <v>255200</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.1926</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-685.6554488600001</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>255000</v>
+      </c>
+      <c r="C559" t="n">
+        <v>255000</v>
+      </c>
+      <c r="D559" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E559" t="n">
+        <v>255000</v>
+      </c>
+      <c r="F559" t="n">
+        <v>17.7392</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-703.3946488600001</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>255200</v>
+      </c>
+      <c r="C560" t="n">
+        <v>255200</v>
+      </c>
+      <c r="D560" t="n">
+        <v>255200</v>
+      </c>
+      <c r="E560" t="n">
+        <v>255200</v>
+      </c>
+      <c r="F560" t="n">
+        <v>10.5431</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-692.8515488600001</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>255300</v>
+      </c>
+      <c r="C561" t="n">
+        <v>255500</v>
+      </c>
+      <c r="D561" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E561" t="n">
+        <v>255300</v>
+      </c>
+      <c r="F561" t="n">
+        <v>77.33669999999999</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-615.5148488600001</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>255100</v>
+      </c>
+      <c r="C562" t="n">
+        <v>255100</v>
+      </c>
+      <c r="D562" t="n">
+        <v>255100</v>
+      </c>
+      <c r="E562" t="n">
+        <v>255100</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.4063</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-615.9211488600001</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>255400</v>
+      </c>
+      <c r="C563" t="n">
+        <v>255400</v>
+      </c>
+      <c r="D563" t="n">
+        <v>255400</v>
+      </c>
+      <c r="E563" t="n">
+        <v>255400</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.9478</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-614.9733488600001</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>255400</v>
+      </c>
+      <c r="C564" t="n">
+        <v>255400</v>
+      </c>
+      <c r="D564" t="n">
+        <v>255400</v>
+      </c>
+      <c r="E564" t="n">
+        <v>255400</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.1359</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-614.9733488600001</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>255400</v>
+      </c>
+      <c r="C565" t="n">
+        <v>255400</v>
+      </c>
+      <c r="D565" t="n">
+        <v>255600</v>
+      </c>
+      <c r="E565" t="n">
+        <v>255400</v>
+      </c>
+      <c r="F565" t="n">
+        <v>62.2489</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-614.9733488600001</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>255600</v>
+      </c>
+      <c r="C566" t="n">
+        <v>255800</v>
+      </c>
+      <c r="D566" t="n">
+        <v>255800</v>
+      </c>
+      <c r="E566" t="n">
+        <v>255600</v>
+      </c>
+      <c r="F566" t="n">
+        <v>39.7757</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-575.1976488600001</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>255500</v>
+      </c>
+      <c r="C567" t="n">
+        <v>255800</v>
+      </c>
+      <c r="D567" t="n">
+        <v>255800</v>
+      </c>
+      <c r="E567" t="n">
+        <v>255500</v>
+      </c>
+      <c r="F567" t="n">
+        <v>9.284700000000001</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-575.1976488600001</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>255800</v>
+      </c>
+      <c r="C568" t="n">
+        <v>255800</v>
+      </c>
+      <c r="D568" t="n">
+        <v>255900</v>
+      </c>
+      <c r="E568" t="n">
+        <v>255800</v>
+      </c>
+      <c r="F568" t="n">
+        <v>35.3809</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-575.1976488600001</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>255800</v>
+      </c>
+      <c r="C569" t="n">
+        <v>255300</v>
+      </c>
+      <c r="D569" t="n">
+        <v>255800</v>
+      </c>
+      <c r="E569" t="n">
+        <v>255300</v>
+      </c>
+      <c r="F569" t="n">
+        <v>85.30159999999999</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-660.4992488600001</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>255500</v>
+      </c>
+      <c r="C570" t="n">
+        <v>255500</v>
+      </c>
+      <c r="D570" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E570" t="n">
+        <v>255500</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.1388</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-660.3604488600001</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>255400</v>
+      </c>
+      <c r="C571" t="n">
+        <v>255400</v>
+      </c>
+      <c r="D571" t="n">
+        <v>255400</v>
+      </c>
+      <c r="E571" t="n">
+        <v>255400</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.1831</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-660.5435488600001</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>255400</v>
+      </c>
+      <c r="C572" t="n">
+        <v>255400</v>
+      </c>
+      <c r="D572" t="n">
+        <v>255400</v>
+      </c>
+      <c r="E572" t="n">
+        <v>255400</v>
+      </c>
+      <c r="F572" t="n">
+        <v>6.3758</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-660.5435488600001</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>255700</v>
+      </c>
+      <c r="C573" t="n">
+        <v>255700</v>
+      </c>
+      <c r="D573" t="n">
+        <v>255800</v>
+      </c>
+      <c r="E573" t="n">
+        <v>255700</v>
+      </c>
+      <c r="F573" t="n">
+        <v>22.1727</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-638.3708488600001</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>255700</v>
+      </c>
+      <c r="C574" t="n">
+        <v>255700</v>
+      </c>
+      <c r="D574" t="n">
+        <v>255700</v>
+      </c>
+      <c r="E574" t="n">
+        <v>255700</v>
+      </c>
+      <c r="F574" t="n">
+        <v>1</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-638.3708488600001</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>255700</v>
+      </c>
+      <c r="C575" t="n">
+        <v>255800</v>
+      </c>
+      <c r="D575" t="n">
+        <v>255800</v>
+      </c>
+      <c r="E575" t="n">
+        <v>255700</v>
+      </c>
+      <c r="F575" t="n">
+        <v>1.7968</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-636.5740488600002</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>255800</v>
+      </c>
+      <c r="C576" t="n">
+        <v>255700</v>
+      </c>
+      <c r="D576" t="n">
+        <v>255800</v>
+      </c>
+      <c r="E576" t="n">
+        <v>255700</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.74969835</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-637.3237472100002</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>255800</v>
+      </c>
+      <c r="C577" t="n">
+        <v>255900</v>
+      </c>
+      <c r="D577" t="n">
+        <v>256000</v>
+      </c>
+      <c r="E577" t="n">
+        <v>255800</v>
+      </c>
+      <c r="F577" t="n">
+        <v>6.3989</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-630.9248472100002</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>255700</v>
+      </c>
+      <c r="C578" t="n">
+        <v>255600</v>
+      </c>
+      <c r="D578" t="n">
+        <v>255900</v>
+      </c>
+      <c r="E578" t="n">
+        <v>255600</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1.3118</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-632.2366472100001</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>255600</v>
+      </c>
+      <c r="C579" t="n">
+        <v>255600</v>
+      </c>
+      <c r="D579" t="n">
+        <v>255600</v>
+      </c>
+      <c r="E579" t="n">
+        <v>255600</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.2293</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-632.2366472100001</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>255900</v>
+      </c>
+      <c r="C580" t="n">
+        <v>256600</v>
+      </c>
+      <c r="D580" t="n">
+        <v>256600</v>
+      </c>
+      <c r="E580" t="n">
+        <v>255900</v>
+      </c>
+      <c r="F580" t="n">
+        <v>162.8768</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-469.3598472100001</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>256600</v>
+      </c>
+      <c r="C581" t="n">
+        <v>257500</v>
+      </c>
+      <c r="D581" t="n">
+        <v>258000</v>
+      </c>
+      <c r="E581" t="n">
+        <v>256600</v>
+      </c>
+      <c r="F581" t="n">
+        <v>142.5228</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-326.8370472100002</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>257500</v>
+      </c>
+      <c r="C582" t="n">
+        <v>257500</v>
+      </c>
+      <c r="D582" t="n">
+        <v>257700</v>
+      </c>
+      <c r="E582" t="n">
+        <v>256900</v>
+      </c>
+      <c r="F582" t="n">
+        <v>166.9505</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-326.8370472100002</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>257500</v>
+      </c>
+      <c r="C583" t="n">
+        <v>257600</v>
+      </c>
+      <c r="D583" t="n">
+        <v>257700</v>
+      </c>
+      <c r="E583" t="n">
+        <v>257300</v>
+      </c>
+      <c r="F583" t="n">
+        <v>12.7907</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-314.0463472100001</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>257200</v>
+      </c>
+      <c r="C584" t="n">
+        <v>257200</v>
+      </c>
+      <c r="D584" t="n">
+        <v>257200</v>
+      </c>
+      <c r="E584" t="n">
+        <v>257200</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2.4857</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-316.5320472100001</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>257200</v>
+      </c>
+      <c r="C585" t="n">
+        <v>258100</v>
+      </c>
+      <c r="D585" t="n">
+        <v>258100</v>
+      </c>
+      <c r="E585" t="n">
+        <v>257100</v>
+      </c>
+      <c r="F585" t="n">
+        <v>17.8867</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-298.6453472100001</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>257800</v>
+      </c>
+      <c r="C586" t="n">
+        <v>257800</v>
+      </c>
+      <c r="D586" t="n">
+        <v>257800</v>
+      </c>
+      <c r="E586" t="n">
+        <v>257800</v>
+      </c>
+      <c r="F586" t="n">
+        <v>7</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-305.6453472100001</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>257800</v>
+      </c>
+      <c r="C587" t="n">
+        <v>258400</v>
+      </c>
+      <c r="D587" t="n">
+        <v>258400</v>
+      </c>
+      <c r="E587" t="n">
+        <v>257800</v>
+      </c>
+      <c r="F587" t="n">
+        <v>50.6347</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-255.0106472100001</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>258400</v>
+      </c>
+      <c r="C588" t="n">
+        <v>259300</v>
+      </c>
+      <c r="D588" t="n">
+        <v>259400</v>
+      </c>
+      <c r="E588" t="n">
+        <v>258400</v>
+      </c>
+      <c r="F588" t="n">
+        <v>141.5297</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-113.4809472100001</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>259100</v>
+      </c>
+      <c r="C589" t="n">
+        <v>258400</v>
+      </c>
+      <c r="D589" t="n">
+        <v>259300</v>
+      </c>
+      <c r="E589" t="n">
+        <v>258400</v>
+      </c>
+      <c r="F589" t="n">
+        <v>134.7748</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-248.2557472100001</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>251900</v>
+      </c>
+      <c r="K589" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L520" t="n">
-        <v>1.003303677342823</v>
-      </c>
-      <c r="M520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>254900</v>
-      </c>
-      <c r="C521" t="n">
-        <v>254900</v>
-      </c>
-      <c r="D521" t="n">
-        <v>255000</v>
-      </c>
-      <c r="E521" t="n">
-        <v>254900</v>
-      </c>
-      <c r="F521" t="n">
-        <v>9.1572</v>
-      </c>
-      <c r="G521" t="n">
-        <v>-669.5640488600001</v>
-      </c>
-      <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
-      <c r="M521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C522" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D522" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E522" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F522" t="n">
-        <v>0.1781</v>
-      </c>
-      <c r="G522" t="n">
-        <v>-669.74214886</v>
-      </c>
-      <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C523" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D523" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E523" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F523" t="n">
-        <v>23.7711</v>
-      </c>
-      <c r="G523" t="n">
-        <v>-669.74214886</v>
-      </c>
-      <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>254900</v>
-      </c>
-      <c r="C524" t="n">
-        <v>254900</v>
-      </c>
-      <c r="D524" t="n">
-        <v>254900</v>
-      </c>
-      <c r="E524" t="n">
-        <v>254900</v>
-      </c>
-      <c r="F524" t="n">
-        <v>22.7216</v>
-      </c>
-      <c r="G524" t="n">
-        <v>-647.0205488600001</v>
-      </c>
-      <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>254600</v>
-      </c>
-      <c r="C525" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D525" t="n">
-        <v>254600</v>
-      </c>
-      <c r="E525" t="n">
-        <v>254100</v>
-      </c>
-      <c r="F525" t="n">
-        <v>100.1282</v>
-      </c>
-      <c r="G525" t="n">
-        <v>-747.1487488600001</v>
-      </c>
-      <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C526" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D526" t="n">
-        <v>254500</v>
-      </c>
-      <c r="E526" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F526" t="n">
-        <v>4.5852</v>
-      </c>
-      <c r="G526" t="n">
-        <v>-747.1487488600001</v>
-      </c>
-      <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>254600</v>
-      </c>
-      <c r="C527" t="n">
-        <v>254700</v>
-      </c>
-      <c r="D527" t="n">
-        <v>254700</v>
-      </c>
-      <c r="E527" t="n">
-        <v>254600</v>
-      </c>
-      <c r="F527" t="n">
-        <v>8.6433</v>
-      </c>
-      <c r="G527" t="n">
-        <v>-738.5054488600001</v>
-      </c>
-      <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>254700</v>
-      </c>
-      <c r="C528" t="n">
-        <v>254700</v>
-      </c>
-      <c r="D528" t="n">
-        <v>254700</v>
-      </c>
-      <c r="E528" t="n">
-        <v>254700</v>
-      </c>
-      <c r="F528" t="n">
-        <v>21.6083</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-738.5054488600001</v>
-      </c>
-      <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C529" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D529" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E529" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F529" t="n">
-        <v>5.2063</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-733.2991488600001</v>
-      </c>
-      <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C530" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D530" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E530" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F530" t="n">
-        <v>4.8329</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-733.2991488600001</v>
-      </c>
-      <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C531" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D531" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E531" t="n">
-        <v>254600</v>
-      </c>
-      <c r="F531" t="n">
-        <v>22.5488</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-733.2991488600001</v>
-      </c>
-      <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>254600</v>
-      </c>
-      <c r="C532" t="n">
-        <v>254600</v>
-      </c>
-      <c r="D532" t="n">
-        <v>254600</v>
-      </c>
-      <c r="E532" t="n">
-        <v>254600</v>
-      </c>
-      <c r="F532" t="n">
-        <v>39</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-772.2991488600001</v>
-      </c>
-      <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C533" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D533" t="n">
-        <v>254900</v>
-      </c>
-      <c r="E533" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F533" t="n">
-        <v>36.0527</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-736.2464488600001</v>
-      </c>
-      <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C534" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D534" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E534" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F534" t="n">
-        <v>3.6762</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-736.2464488600001</v>
-      </c>
-      <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C535" t="n">
-        <v>254600</v>
-      </c>
-      <c r="D535" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E535" t="n">
-        <v>254600</v>
-      </c>
-      <c r="F535" t="n">
-        <v>8.5382</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-744.7846488600001</v>
-      </c>
-      <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C536" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D536" t="n">
-        <v>254500</v>
-      </c>
-      <c r="E536" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F536" t="n">
-        <v>1.5561</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-746.3407488600001</v>
-      </c>
-      <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>254200</v>
-      </c>
-      <c r="C537" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D537" t="n">
-        <v>254500</v>
-      </c>
-      <c r="E537" t="n">
-        <v>254200</v>
-      </c>
-      <c r="F537" t="n">
-        <v>13.3715</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-746.3407488600001</v>
-      </c>
-      <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C538" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D538" t="n">
-        <v>254500</v>
-      </c>
-      <c r="E538" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F538" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-746.3407488600001</v>
-      </c>
-      <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>254600</v>
-      </c>
-      <c r="C539" t="n">
-        <v>254600</v>
-      </c>
-      <c r="D539" t="n">
-        <v>254600</v>
-      </c>
-      <c r="E539" t="n">
-        <v>254600</v>
-      </c>
-      <c r="F539" t="n">
-        <v>9.2386</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-737.1021488600001</v>
-      </c>
-      <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>254700</v>
-      </c>
-      <c r="C540" t="n">
-        <v>254700</v>
-      </c>
-      <c r="D540" t="n">
-        <v>254700</v>
-      </c>
-      <c r="E540" t="n">
-        <v>254700</v>
-      </c>
-      <c r="F540" t="n">
-        <v>0.2406</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-736.8615488600001</v>
-      </c>
-      <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>254400</v>
-      </c>
-      <c r="C541" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D541" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E541" t="n">
-        <v>254400</v>
-      </c>
-      <c r="F541" t="n">
-        <v>1.1791</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-735.6824488600001</v>
-      </c>
-      <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C542" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D542" t="n">
-        <v>254500</v>
-      </c>
-      <c r="E542" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F542" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-738.2824488600002</v>
-      </c>
-      <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>254400</v>
-      </c>
-      <c r="C543" t="n">
-        <v>254400</v>
-      </c>
-      <c r="D543" t="n">
-        <v>254400</v>
-      </c>
-      <c r="E543" t="n">
-        <v>254400</v>
-      </c>
-      <c r="F543" t="n">
-        <v>0.9825</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-739.2649488600001</v>
-      </c>
-      <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C544" t="n">
-        <v>254400</v>
-      </c>
-      <c r="D544" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E544" t="n">
-        <v>254400</v>
-      </c>
-      <c r="F544" t="n">
-        <v>18.8178</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-739.2649488600001</v>
-      </c>
-      <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>254700</v>
-      </c>
-      <c r="C545" t="n">
-        <v>254400</v>
-      </c>
-      <c r="D545" t="n">
-        <v>254700</v>
-      </c>
-      <c r="E545" t="n">
-        <v>254300</v>
-      </c>
-      <c r="F545" t="n">
-        <v>60.0814</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-739.2649488600001</v>
-      </c>
-      <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C546" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D546" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E546" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F546" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-739.2631488600001</v>
-      </c>
-      <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C547" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D547" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E547" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F547" t="n">
-        <v>30.8038854</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-739.2631488600001</v>
-      </c>
-      <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C548" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D548" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E548" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F548" t="n">
-        <v>11.8054</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-751.0685488600001</v>
-      </c>
-      <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C549" t="n">
-        <v>255000</v>
-      </c>
-      <c r="D549" t="n">
-        <v>255000</v>
-      </c>
-      <c r="E549" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F549" t="n">
-        <v>49.9112</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-701.1573488600001</v>
-      </c>
-      <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>254500</v>
-      </c>
-      <c r="C550" t="n">
-        <v>254500</v>
-      </c>
-      <c r="D550" t="n">
-        <v>254500</v>
-      </c>
-      <c r="E550" t="n">
-        <v>254500</v>
-      </c>
-      <c r="F550" t="n">
-        <v>24.9556</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-726.1129488600001</v>
-      </c>
-      <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>254800</v>
-      </c>
-      <c r="C551" t="n">
-        <v>254800</v>
-      </c>
-      <c r="D551" t="n">
-        <v>254800</v>
-      </c>
-      <c r="E551" t="n">
-        <v>254800</v>
-      </c>
-      <c r="F551" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-708.0129488600001</v>
-      </c>
-      <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>254900</v>
-      </c>
-      <c r="C552" t="n">
-        <v>254900</v>
-      </c>
-      <c r="D552" t="n">
-        <v>254900</v>
-      </c>
-      <c r="E552" t="n">
-        <v>254900</v>
-      </c>
-      <c r="F552" t="n">
-        <v>0.1767</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-707.8362488600001</v>
-      </c>
-      <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>254900</v>
-      </c>
-      <c r="C553" t="n">
-        <v>255000</v>
-      </c>
-      <c r="D553" t="n">
-        <v>255000</v>
-      </c>
-      <c r="E553" t="n">
-        <v>254900</v>
-      </c>
-      <c r="F553" t="n">
-        <v>15.4473</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-692.38894886</v>
-      </c>
-      <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>255000</v>
-      </c>
-      <c r="C554" t="n">
-        <v>255300</v>
-      </c>
-      <c r="D554" t="n">
-        <v>255300</v>
-      </c>
-      <c r="E554" t="n">
-        <v>255000</v>
-      </c>
-      <c r="F554" t="n">
-        <v>56.5409</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-635.8480488600001</v>
-      </c>
-      <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>255300</v>
-      </c>
-      <c r="C555" t="n">
-        <v>255300</v>
-      </c>
-      <c r="D555" t="n">
-        <v>255300</v>
-      </c>
-      <c r="E555" t="n">
-        <v>255300</v>
-      </c>
-      <c r="F555" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-635.8480488600001</v>
-      </c>
-      <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>255100</v>
-      </c>
-      <c r="C556" t="n">
-        <v>255300</v>
-      </c>
-      <c r="D556" t="n">
-        <v>255300</v>
-      </c>
-      <c r="E556" t="n">
-        <v>255100</v>
-      </c>
-      <c r="F556" t="n">
-        <v>4.731</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-635.8480488600001</v>
-      </c>
-      <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>255100</v>
-      </c>
-      <c r="C557" t="n">
-        <v>255000</v>
-      </c>
-      <c r="D557" t="n">
-        <v>255100</v>
-      </c>
-      <c r="E557" t="n">
-        <v>255000</v>
-      </c>
-      <c r="F557" t="n">
-        <v>50</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-685.8480488600001</v>
-      </c>
-      <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>255200</v>
-      </c>
-      <c r="C558" t="n">
-        <v>255200</v>
-      </c>
-      <c r="D558" t="n">
-        <v>255200</v>
-      </c>
-      <c r="E558" t="n">
-        <v>255200</v>
-      </c>
-      <c r="F558" t="n">
-        <v>0.1926</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-685.6554488600001</v>
-      </c>
-      <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>255000</v>
-      </c>
-      <c r="C559" t="n">
-        <v>255000</v>
-      </c>
-      <c r="D559" t="n">
-        <v>255000</v>
-      </c>
-      <c r="E559" t="n">
-        <v>255000</v>
-      </c>
-      <c r="F559" t="n">
-        <v>17.7392</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-703.3946488600001</v>
-      </c>
-      <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>255200</v>
-      </c>
-      <c r="C560" t="n">
-        <v>255200</v>
-      </c>
-      <c r="D560" t="n">
-        <v>255200</v>
-      </c>
-      <c r="E560" t="n">
-        <v>255200</v>
-      </c>
-      <c r="F560" t="n">
-        <v>10.5431</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-692.8515488600001</v>
-      </c>
-      <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>255300</v>
-      </c>
-      <c r="C561" t="n">
-        <v>255500</v>
-      </c>
-      <c r="D561" t="n">
-        <v>255500</v>
-      </c>
-      <c r="E561" t="n">
-        <v>255300</v>
-      </c>
-      <c r="F561" t="n">
-        <v>77.33669999999999</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-615.5148488600001</v>
-      </c>
-      <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>255100</v>
-      </c>
-      <c r="C562" t="n">
-        <v>255100</v>
-      </c>
-      <c r="D562" t="n">
-        <v>255100</v>
-      </c>
-      <c r="E562" t="n">
-        <v>255100</v>
-      </c>
-      <c r="F562" t="n">
-        <v>0.4063</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-615.9211488600001</v>
-      </c>
-      <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>255400</v>
-      </c>
-      <c r="C563" t="n">
-        <v>255400</v>
-      </c>
-      <c r="D563" t="n">
-        <v>255400</v>
-      </c>
-      <c r="E563" t="n">
-        <v>255400</v>
-      </c>
-      <c r="F563" t="n">
-        <v>0.9478</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-614.9733488600001</v>
-      </c>
-      <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>255400</v>
-      </c>
-      <c r="C564" t="n">
-        <v>255400</v>
-      </c>
-      <c r="D564" t="n">
-        <v>255400</v>
-      </c>
-      <c r="E564" t="n">
-        <v>255400</v>
-      </c>
-      <c r="F564" t="n">
-        <v>0.1359</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-614.9733488600001</v>
-      </c>
-      <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>255400</v>
-      </c>
-      <c r="C565" t="n">
-        <v>255400</v>
-      </c>
-      <c r="D565" t="n">
-        <v>255600</v>
-      </c>
-      <c r="E565" t="n">
-        <v>255400</v>
-      </c>
-      <c r="F565" t="n">
-        <v>62.2489</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-614.9733488600001</v>
-      </c>
-      <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>255600</v>
-      </c>
-      <c r="C566" t="n">
-        <v>255800</v>
-      </c>
-      <c r="D566" t="n">
-        <v>255800</v>
-      </c>
-      <c r="E566" t="n">
-        <v>255600</v>
-      </c>
-      <c r="F566" t="n">
-        <v>39.7757</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-575.1976488600001</v>
-      </c>
-      <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>255500</v>
-      </c>
-      <c r="C567" t="n">
-        <v>255800</v>
-      </c>
-      <c r="D567" t="n">
-        <v>255800</v>
-      </c>
-      <c r="E567" t="n">
-        <v>255500</v>
-      </c>
-      <c r="F567" t="n">
-        <v>9.284700000000001</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-575.1976488600001</v>
-      </c>
-      <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>255800</v>
-      </c>
-      <c r="C568" t="n">
-        <v>255800</v>
-      </c>
-      <c r="D568" t="n">
-        <v>255900</v>
-      </c>
-      <c r="E568" t="n">
-        <v>255800</v>
-      </c>
-      <c r="F568" t="n">
-        <v>35.3809</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-575.1976488600001</v>
-      </c>
-      <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>255800</v>
-      </c>
-      <c r="C569" t="n">
-        <v>255300</v>
-      </c>
-      <c r="D569" t="n">
-        <v>255800</v>
-      </c>
-      <c r="E569" t="n">
-        <v>255300</v>
-      </c>
-      <c r="F569" t="n">
-        <v>85.30159999999999</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-660.4992488600001</v>
-      </c>
-      <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>255500</v>
-      </c>
-      <c r="C570" t="n">
-        <v>255500</v>
-      </c>
-      <c r="D570" t="n">
-        <v>255500</v>
-      </c>
-      <c r="E570" t="n">
-        <v>255500</v>
-      </c>
-      <c r="F570" t="n">
-        <v>0.1388</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-660.3604488600001</v>
-      </c>
-      <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>255400</v>
-      </c>
-      <c r="C571" t="n">
-        <v>255400</v>
-      </c>
-      <c r="D571" t="n">
-        <v>255400</v>
-      </c>
-      <c r="E571" t="n">
-        <v>255400</v>
-      </c>
-      <c r="F571" t="n">
-        <v>0.1831</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-660.5435488600001</v>
-      </c>
-      <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>255400</v>
-      </c>
-      <c r="C572" t="n">
-        <v>255400</v>
-      </c>
-      <c r="D572" t="n">
-        <v>255400</v>
-      </c>
-      <c r="E572" t="n">
-        <v>255400</v>
-      </c>
-      <c r="F572" t="n">
-        <v>6.3758</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-660.5435488600001</v>
-      </c>
-      <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>255700</v>
-      </c>
-      <c r="C573" t="n">
-        <v>255700</v>
-      </c>
-      <c r="D573" t="n">
-        <v>255800</v>
-      </c>
-      <c r="E573" t="n">
-        <v>255700</v>
-      </c>
-      <c r="F573" t="n">
-        <v>22.1727</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-638.3708488600001</v>
-      </c>
-      <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>255700</v>
-      </c>
-      <c r="C574" t="n">
-        <v>255700</v>
-      </c>
-      <c r="D574" t="n">
-        <v>255700</v>
-      </c>
-      <c r="E574" t="n">
-        <v>255700</v>
-      </c>
-      <c r="F574" t="n">
-        <v>1</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-638.3708488600001</v>
-      </c>
-      <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>255700</v>
-      </c>
-      <c r="C575" t="n">
-        <v>255800</v>
-      </c>
-      <c r="D575" t="n">
-        <v>255800</v>
-      </c>
-      <c r="E575" t="n">
-        <v>255700</v>
-      </c>
-      <c r="F575" t="n">
-        <v>1.7968</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-636.5740488600002</v>
-      </c>
-      <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>255800</v>
-      </c>
-      <c r="C576" t="n">
-        <v>255700</v>
-      </c>
-      <c r="D576" t="n">
-        <v>255800</v>
-      </c>
-      <c r="E576" t="n">
-        <v>255700</v>
-      </c>
-      <c r="F576" t="n">
-        <v>0.74969835</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-637.3237472100002</v>
-      </c>
-      <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>255800</v>
-      </c>
-      <c r="C577" t="n">
-        <v>255900</v>
-      </c>
-      <c r="D577" t="n">
-        <v>256000</v>
-      </c>
-      <c r="E577" t="n">
-        <v>255800</v>
-      </c>
-      <c r="F577" t="n">
-        <v>6.3989</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-630.9248472100002</v>
-      </c>
-      <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>255700</v>
-      </c>
-      <c r="C578" t="n">
-        <v>255600</v>
-      </c>
-      <c r="D578" t="n">
-        <v>255900</v>
-      </c>
-      <c r="E578" t="n">
-        <v>255600</v>
-      </c>
-      <c r="F578" t="n">
-        <v>1.3118</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-632.2366472100001</v>
-      </c>
-      <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>255600</v>
-      </c>
-      <c r="C579" t="n">
-        <v>255600</v>
-      </c>
-      <c r="D579" t="n">
-        <v>255600</v>
-      </c>
-      <c r="E579" t="n">
-        <v>255600</v>
-      </c>
-      <c r="F579" t="n">
-        <v>0.2293</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-632.2366472100001</v>
-      </c>
-      <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>255900</v>
-      </c>
-      <c r="C580" t="n">
-        <v>256600</v>
-      </c>
-      <c r="D580" t="n">
-        <v>256600</v>
-      </c>
-      <c r="E580" t="n">
-        <v>255900</v>
-      </c>
-      <c r="F580" t="n">
-        <v>162.8768</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-469.3598472100001</v>
-      </c>
-      <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>256600</v>
-      </c>
-      <c r="C581" t="n">
-        <v>257500</v>
-      </c>
-      <c r="D581" t="n">
-        <v>258000</v>
-      </c>
-      <c r="E581" t="n">
-        <v>256600</v>
-      </c>
-      <c r="F581" t="n">
-        <v>142.5228</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-326.8370472100002</v>
-      </c>
-      <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>257500</v>
-      </c>
-      <c r="C582" t="n">
-        <v>257500</v>
-      </c>
-      <c r="D582" t="n">
-        <v>257700</v>
-      </c>
-      <c r="E582" t="n">
-        <v>256900</v>
-      </c>
-      <c r="F582" t="n">
-        <v>166.9505</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-326.8370472100002</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>257500</v>
-      </c>
-      <c r="C583" t="n">
-        <v>257600</v>
-      </c>
-      <c r="D583" t="n">
-        <v>257700</v>
-      </c>
-      <c r="E583" t="n">
-        <v>257300</v>
-      </c>
-      <c r="F583" t="n">
-        <v>12.7907</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-314.0463472100001</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>257200</v>
-      </c>
-      <c r="C584" t="n">
-        <v>257200</v>
-      </c>
-      <c r="D584" t="n">
-        <v>257200</v>
-      </c>
-      <c r="E584" t="n">
-        <v>257200</v>
-      </c>
-      <c r="F584" t="n">
-        <v>2.4857</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-316.5320472100001</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>257200</v>
-      </c>
-      <c r="C585" t="n">
-        <v>258100</v>
-      </c>
-      <c r="D585" t="n">
-        <v>258100</v>
-      </c>
-      <c r="E585" t="n">
-        <v>257100</v>
-      </c>
-      <c r="F585" t="n">
-        <v>17.8867</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-298.6453472100001</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>257800</v>
-      </c>
-      <c r="C586" t="n">
-        <v>257800</v>
-      </c>
-      <c r="D586" t="n">
-        <v>257800</v>
-      </c>
-      <c r="E586" t="n">
-        <v>257800</v>
-      </c>
-      <c r="F586" t="n">
-        <v>7</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-305.6453472100001</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>257800</v>
-      </c>
-      <c r="C587" t="n">
-        <v>258400</v>
-      </c>
-      <c r="D587" t="n">
-        <v>258400</v>
-      </c>
-      <c r="E587" t="n">
-        <v>257800</v>
-      </c>
-      <c r="F587" t="n">
-        <v>50.6347</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-255.0106472100001</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>258400</v>
-      </c>
-      <c r="C588" t="n">
-        <v>259300</v>
-      </c>
-      <c r="D588" t="n">
-        <v>259400</v>
-      </c>
-      <c r="E588" t="n">
-        <v>258400</v>
-      </c>
-      <c r="F588" t="n">
-        <v>141.5297</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-113.4809472100001</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>259100</v>
-      </c>
-      <c r="C589" t="n">
-        <v>258400</v>
-      </c>
-      <c r="D589" t="n">
-        <v>259300</v>
-      </c>
-      <c r="E589" t="n">
-        <v>258400</v>
-      </c>
-      <c r="F589" t="n">
-        <v>134.7748</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-248.2557472100001</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
-        <v>1</v>
+        <v>1.020803890432711</v>
       </c>
       <c r="M589" t="inlineStr"/>
     </row>
@@ -20207,7 +21087,7 @@
         <v>-250.0001472100001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20240,7 +21120,7 @@
         <v>-230.7349472100001</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20306,7 +21186,7 @@
         <v>-188.4701472100001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20339,7 +21219,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20372,7 +21252,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20405,7 +21285,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20438,7 +21318,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20471,7 +21351,7 @@
         <v>-332.2521472100001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
